--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/handback-status.xlsx
@@ -294,7 +294,7 @@
     <t>2015-11-12 19:33:45</t>
   </si>
   <si>
-    <t>2016-02-22 08:53:12</t>
+    <t>2016-02-22 08:54:18</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -588,7 +588,7 @@
     <t>2016-01-05 07:27:06</t>
   </si>
   <si>
-    <t>2016-02-22 08:53:23</t>
+    <t>2016-02-22 08:54:29</t>
   </si>
   <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.ru-ru.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/handback-status.xlsx
@@ -14,11 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>File Name</t>
   </si>
   <si>
+    <t>zh-cn</t>
+  </si>
+  <si>
+    <t>overview.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -53,13 +62,30 @@
   </si>
   <si>
     <t>Error Detail</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-12 05:41:03</t>
+  </si>
+  <si>
+    <t>2016-04-12 06:40:48</t>
+  </si>
+  <si>
+    <t>Include</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:mm:ss"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -93,9 +119,10 @@
     <xf fontId="0"/>
     <xf fontId="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf fontId="0"/>
     <xf fontId="1" applyFont="1" xfId="1"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -126,7 +153,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:L2" headerRowCount="1">
+  <autoFilter ref="A1:L2"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -146,9 +174,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1" headerRowCount="0">
-  <tableColumns count="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:B2" headerRowCount="1">
+  <autoFilter ref="A1:B2"/>
+  <tableColumns count="2">
     <tableColumn id="1" name="File Name"/>
+    <tableColumn id="2" name="zh-cn"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -156,21 +186,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="overview.md" r:id="rId2"/>
+  </hyperlinks>
   <headerFooter/>
   <tableParts>
     <tablePart r:id="rId1"/>
@@ -202,40 +247,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -248,7 +293,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -270,43 +315,78 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="B2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>12</v>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="overview.md" r:id="rId2"/>
+    <hyperlink ref="D2" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="F2" display="overview.md" r:id="rId4"/>
+    <hyperlink ref="G2" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId5"/>
+  </hyperlinks>
   <headerFooter/>
   <tableParts>
     <tablePart r:id="rId1"/>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/handback-status.xlsx
@@ -70,10 +70,10 @@
     <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-04-12 05:41:03</t>
-  </si>
-  <si>
-    <t>2016-04-12 06:40:48</t>
+    <t>2016-04-12 06:50:20</t>
+  </si>
+  <si>
+    <t>2016-04-12 16:11:00</t>
   </si>
   <si>
     <t>Include</t>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>File Name</t>
   </si>
@@ -22,7 +22,13 @@
     <t>zh-cn</t>
   </si>
   <si>
-    <t>overview.md</t>
+    <t>overview-test2.md</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>authoringResource.md</t>
   </si>
   <si>
     <t>Handed back: in sync with en-US</t>
@@ -77,6 +83,15 @@
   </si>
   <si>
     <t>Include</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-12 19:20:28</t>
+  </si>
+  <si>
+    <t>2016-04-12 22:40:49</t>
   </si>
 </sst>
 </file>
@@ -153,8 +168,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:L2" headerRowCount="1">
-  <autoFilter ref="A1:L2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:L3" headerRowCount="1">
+  <autoFilter ref="A1:L3"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -174,8 +189,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:B2" headerRowCount="1">
-  <autoFilter ref="A1:B2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:B3" headerRowCount="1">
+  <autoFilter ref="A1:B3"/>
   <tableColumns count="2">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="zh-cn"/>
@@ -186,7 +201,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -212,9 +227,18 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="overview.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="overview-test2.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="authoringResource.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -247,40 +271,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -293,7 +317,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -315,40 +339,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -356,36 +380,69 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="overview.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="overview-test2.md" r:id="rId2"/>
     <hyperlink ref="D2" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="F2" display="overview.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="overview-test2.md" r:id="rId4"/>
     <hyperlink ref="G2" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="authoringResource.md" r:id="rId6"/>
+    <hyperlink ref="D3" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="F3" display="authoringResource.md" r:id="rId8"/>
+    <hyperlink ref="G3" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/handback-status.xlsx
@@ -525,6 +525,12 @@
     <t>2016-04-13 18:57:42</t>
   </si>
   <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-13 21:37:43</t>
+  </si>
+  <si>
     <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf</t>
   </si>
   <si>
@@ -673,12 +679,6 @@
   </si>
   <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-13 15:57:58</t>
   </si>
   <si>
     <t>OpenLoc ROCKS.ac3ecff61703b5a6c0e8f6ae2b1e10c3a845cc67.zh-cn.xlf</t>
@@ -3965,7 +3965,7 @@
         <v>13</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>13</v>
@@ -8283,22 +8283,28 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>83</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>167</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>87</v>
@@ -8306,7 +8312,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>83</v>
@@ -8329,7 +8335,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>83</v>
@@ -8341,7 +8347,7 @@
         <v>171</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>139</v>
@@ -8352,7 +8358,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>83</v>
@@ -8361,10 +8367,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>139</v>
@@ -8375,7 +8381,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>83</v>
@@ -8384,10 +8390,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>139</v>
@@ -8398,7 +8404,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>83</v>
@@ -8407,10 +8413,10 @@
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>139</v>
@@ -8421,7 +8427,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>83</v>
@@ -8430,10 +8436,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>139</v>
@@ -8444,7 +8450,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>83</v>
@@ -8453,10 +8459,10 @@
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>139</v>
@@ -8467,7 +8473,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>83</v>
@@ -8476,10 +8482,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>139</v>
@@ -8490,7 +8496,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>83</v>
@@ -8499,10 +8505,10 @@
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>139</v>
@@ -8513,7 +8519,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>83</v>
@@ -8522,10 +8528,10 @@
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>139</v>
@@ -8536,7 +8542,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>83</v>
@@ -8545,10 +8551,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>139</v>
@@ -8559,7 +8565,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>83</v>
@@ -8568,10 +8574,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>139</v>
@@ -8582,33 +8588,30 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>139</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>137</v>
@@ -8617,10 +8620,10 @@
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>139</v>
@@ -8634,19 +8637,19 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>139</v>
@@ -8655,12 +8658,12 @@
         <v>140</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>143</v>
@@ -8669,10 +8672,10 @@
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>139</v>
@@ -8681,35 +8684,38 @@
         <v>140</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>139</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>87</v>
+        <v>140</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>83</v>
@@ -8718,10 +8724,10 @@
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>139</v>
@@ -8732,7 +8738,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>83</v>
@@ -8741,10 +8747,10 @@
         <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>139</v>
@@ -8755,7 +8761,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>83</v>
@@ -8764,10 +8770,10 @@
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>139</v>
@@ -8778,7 +8784,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>83</v>
@@ -8787,10 +8793,10 @@
         <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>139</v>
@@ -8801,7 +8807,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>83</v>
@@ -8810,10 +8816,10 @@
         <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>139</v>
@@ -8824,7 +8830,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>83</v>
@@ -8833,10 +8839,10 @@
         <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>139</v>
@@ -8847,7 +8853,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>83</v>
@@ -8856,10 +8862,10 @@
         <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>139</v>
@@ -8870,7 +8876,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>83</v>
@@ -8879,10 +8885,10 @@
         <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>139</v>
@@ -8893,7 +8899,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>83</v>
@@ -8902,10 +8908,10 @@
         <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>139</v>
@@ -8916,7 +8922,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>83</v>
@@ -8925,10 +8931,10 @@
         <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>139</v>
@@ -8939,7 +8945,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>83</v>
@@ -8948,10 +8954,10 @@
         <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>139</v>
@@ -8962,7 +8968,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>83</v>
@@ -8971,10 +8977,10 @@
         <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>139</v>
@@ -8985,7 +8991,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>83</v>
@@ -8994,10 +9000,10 @@
         <v>12</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>139</v>
@@ -9008,7 +9014,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>83</v>
@@ -9017,10 +9023,10 @@
         <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>139</v>
@@ -9031,7 +9037,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>83</v>
@@ -9040,10 +9046,10 @@
         <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>139</v>
@@ -9054,7 +9060,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>83</v>
@@ -9063,10 +9069,10 @@
         <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>139</v>
@@ -9077,7 +9083,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>83</v>
@@ -9086,10 +9092,10 @@
         <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>139</v>
@@ -9100,7 +9106,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>83</v>
@@ -9109,10 +9115,10 @@
         <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>139</v>
@@ -9123,7 +9129,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>83</v>
@@ -9132,10 +9138,10 @@
         <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>139</v>
@@ -9146,7 +9152,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>83</v>
@@ -9155,7 +9161,7 @@
         <v>12</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>170</v>
@@ -9169,7 +9175,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>83</v>
@@ -9178,10 +9184,10 @@
         <v>12</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>139</v>
@@ -9192,7 +9198,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>83</v>
@@ -9201,10 +9207,10 @@
         <v>12</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>139</v>
@@ -9215,7 +9221,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>83</v>
@@ -9224,10 +9230,10 @@
         <v>12</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>139</v>
@@ -9238,7 +9244,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>83</v>
@@ -9247,10 +9253,10 @@
         <v>12</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>139</v>
@@ -9261,7 +9267,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>83</v>
@@ -9270,10 +9276,10 @@
         <v>12</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>139</v>
@@ -9284,7 +9290,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>83</v>
@@ -9293,10 +9299,10 @@
         <v>12</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>139</v>
@@ -9307,7 +9313,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>83</v>
@@ -9316,10 +9322,10 @@
         <v>12</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>139</v>
@@ -9330,7 +9336,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>83</v>
@@ -9339,10 +9345,10 @@
         <v>12</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>139</v>
@@ -9353,7 +9359,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>83</v>
@@ -9362,10 +9368,10 @@
         <v>12</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>139</v>
@@ -9376,7 +9382,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>83</v>
@@ -9385,10 +9391,10 @@
         <v>12</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>139</v>
@@ -9399,7 +9405,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>83</v>
@@ -9408,10 +9414,10 @@
         <v>12</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>139</v>
@@ -9422,7 +9428,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>83</v>
@@ -9431,10 +9437,10 @@
         <v>12</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>139</v>
@@ -9445,7 +9451,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>83</v>
@@ -9454,10 +9460,10 @@
         <v>12</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>139</v>
@@ -9468,28 +9474,22 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>83</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>218</v>
+        <v>139</v>
       </c>
       <c r="J56" s="0" t="s">
         <v>87</v>
@@ -9584,112 +9584,112 @@
     <hyperlink ref="D4" display="a20dd5927999cbb3c1125bd4ff8944954abc84a9.png" r:id="rId11"/>
     <hyperlink ref="F4" display="Pull1.png" r:id="rId12"/>
     <hyperlink ref="G4" display="a20dd5927999cbb3c1125bd4ff8944954abc84a9.png" r:id="rId13"/>
-    <hyperlink ref="A5" display="CONTRIBUTING.md" r:id="rId14"/>
-    <hyperlink ref="D5" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A6" display="authoringResourceClass.md" r:id="rId16"/>
-    <hyperlink ref="D6" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A7" display="authoringResourceComposite.md" r:id="rId18"/>
-    <hyperlink ref="D7" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A8" display="authoringResourceMOF.md" r:id="rId20"/>
-    <hyperlink ref="D8" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A9" display="authoringResourceMofCS.md" r:id="rId22"/>
-    <hyperlink ref="D9" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A10" display="authoringResourceMofDesigner.md" r:id="rId24"/>
-    <hyperlink ref="D10" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A11" display="builtInResource.md" r:id="rId26"/>
-    <hyperlink ref="D11" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId27"/>
-    <hyperlink ref="A12" display="configData.md" r:id="rId28"/>
-    <hyperlink ref="D12" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A13" display="configurations.md" r:id="rId30"/>
-    <hyperlink ref="D13" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId31"/>
-    <hyperlink ref="A14" display="enactingConfigurations.md" r:id="rId32"/>
-    <hyperlink ref="D14" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId33"/>
-    <hyperlink ref="A15" display="environmentResource.md" r:id="rId34"/>
-    <hyperlink ref="D15" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId35"/>
-    <hyperlink ref="A16" display="fileResource.md" r:id="rId36"/>
-    <hyperlink ref="D16" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId37"/>
-    <hyperlink ref="A17" display="groupResource.md" r:id="rId38"/>
-    <hyperlink ref="D17" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId39"/>
-    <hyperlink ref="A18" display="PartialConfig1.jpg" r:id="rId40"/>
-    <hyperlink ref="D18" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId41"/>
-    <hyperlink ref="A19" display="PartialConfigPullServer.jpg" r:id="rId42"/>
-    <hyperlink ref="D19" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId43"/>
-    <hyperlink ref="A20" display="Pull.png" r:id="rId44"/>
-    <hyperlink ref="D20" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId45"/>
-    <hyperlink ref="A21" display="Push.png" r:id="rId46"/>
-    <hyperlink ref="D21" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId47"/>
-    <hyperlink ref="A22" display="lnxArchiveResource.md" r:id="rId48"/>
-    <hyperlink ref="D22" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId49"/>
-    <hyperlink ref="A23" display="lnxBuiltInResources.md" r:id="rId50"/>
-    <hyperlink ref="D23" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId51"/>
-    <hyperlink ref="A24" display="lnxEnvironmentResource.md" r:id="rId52"/>
-    <hyperlink ref="D24" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId53"/>
-    <hyperlink ref="A25" display="lnxFileLineResource.md" r:id="rId54"/>
-    <hyperlink ref="D25" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId55"/>
-    <hyperlink ref="A26" display="lnxFileResource.md" r:id="rId56"/>
-    <hyperlink ref="D26" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId57"/>
-    <hyperlink ref="A27" display="lnxGettingStarted.md" r:id="rId58"/>
-    <hyperlink ref="D27" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId59"/>
-    <hyperlink ref="A28" display="lnxGroupResource.md" r:id="rId60"/>
-    <hyperlink ref="D28" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId61"/>
-    <hyperlink ref="A29" display="lnxPackageResource.md" r:id="rId62"/>
-    <hyperlink ref="D29" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId63"/>
-    <hyperlink ref="A30" display="lnxScriptResource.md" r:id="rId64"/>
-    <hyperlink ref="D30" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId65"/>
-    <hyperlink ref="A31" display="lnxServiceResource.md" r:id="rId66"/>
-    <hyperlink ref="D31" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId67"/>
-    <hyperlink ref="A32" display="lnxSshAuthorizedKeysResource.md" r:id="rId68"/>
-    <hyperlink ref="D32" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId69"/>
-    <hyperlink ref="A33" display="lnxUserResource.md" r:id="rId70"/>
-    <hyperlink ref="D33" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId71"/>
-    <hyperlink ref="A34" display="logResource.md" r:id="rId72"/>
-    <hyperlink ref="D34" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId73"/>
-    <hyperlink ref="A35" display="metaConfig.md" r:id="rId74"/>
-    <hyperlink ref="D35" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId75"/>
-    <hyperlink ref="A36" display="metaConfig4.md" r:id="rId76"/>
-    <hyperlink ref="D36" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId77"/>
-    <hyperlink ref="A37" display="packageResource.md" r:id="rId78"/>
-    <hyperlink ref="D37" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId79"/>
-    <hyperlink ref="A38" display="pullClient.md" r:id="rId80"/>
-    <hyperlink ref="D38" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId81"/>
-    <hyperlink ref="A39" display="pullClientConfigID.md" r:id="rId82"/>
-    <hyperlink ref="D39" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId83"/>
-    <hyperlink ref="A40" display="pullClientConfigID4.md" r:id="rId84"/>
-    <hyperlink ref="D40" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId85"/>
-    <hyperlink ref="A41" display="pullClientConfigNames.md" r:id="rId86"/>
-    <hyperlink ref="D41" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId87"/>
-    <hyperlink ref="A42" display="pullServer.md" r:id="rId88"/>
-    <hyperlink ref="D42" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId89"/>
-    <hyperlink ref="A43" display="queryServerNodes.md" r:id="rId90"/>
-    <hyperlink ref="D43" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId91"/>
-    <hyperlink ref="A44" display="registryResource.md" r:id="rId92"/>
-    <hyperlink ref="D44" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId93"/>
-    <hyperlink ref="A45" display="resources.md" r:id="rId94"/>
-    <hyperlink ref="D45" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId95"/>
-    <hyperlink ref="A46" display="scriptResource.md" r:id="rId96"/>
-    <hyperlink ref="D46" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId97"/>
-    <hyperlink ref="A47" display="secureMOF.md" r:id="rId98"/>
-    <hyperlink ref="D47" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId99"/>
-    <hyperlink ref="A48" display="secureServer.md" r:id="rId100"/>
-    <hyperlink ref="D48" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId101"/>
-    <hyperlink ref="A49" display="serviceResource.md" r:id="rId102"/>
-    <hyperlink ref="D49" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId103"/>
-    <hyperlink ref="A50" display="TOC.md" r:id="rId104"/>
-    <hyperlink ref="D50" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId105"/>
-    <hyperlink ref="A51" display="troubleshooting.md" r:id="rId106"/>
-    <hyperlink ref="D51" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId107"/>
-    <hyperlink ref="A52" display="userResource.md" r:id="rId108"/>
-    <hyperlink ref="D52" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId109"/>
-    <hyperlink ref="A53" display="windowsfeatureResource.md" r:id="rId110"/>
-    <hyperlink ref="D53" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId111"/>
-    <hyperlink ref="A54" display="windowsProcessResource.md" r:id="rId112"/>
-    <hyperlink ref="D54" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId113"/>
-    <hyperlink ref="A55" display="README.md" r:id="rId114"/>
-    <hyperlink ref="D55" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId115"/>
-    <hyperlink ref="A56" display="partialConfigs.md" r:id="rId116"/>
-    <hyperlink ref="D56" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId117"/>
-    <hyperlink ref="F56" display="partialConfigs.md" r:id="rId118"/>
-    <hyperlink ref="G56" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId119"/>
+    <hyperlink ref="A5" display="partialConfigs.md" r:id="rId14"/>
+    <hyperlink ref="D5" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="F5" display="partialConfigs.md" r:id="rId16"/>
+    <hyperlink ref="G5" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="CONTRIBUTING.md" r:id="rId18"/>
+    <hyperlink ref="D6" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A7" display="authoringResourceClass.md" r:id="rId20"/>
+    <hyperlink ref="D7" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A8" display="authoringResourceComposite.md" r:id="rId22"/>
+    <hyperlink ref="D8" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A9" display="authoringResourceMOF.md" r:id="rId24"/>
+    <hyperlink ref="D9" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A10" display="authoringResourceMofCS.md" r:id="rId26"/>
+    <hyperlink ref="D10" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A11" display="authoringResourceMofDesigner.md" r:id="rId28"/>
+    <hyperlink ref="D11" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId29"/>
+    <hyperlink ref="A12" display="builtInResource.md" r:id="rId30"/>
+    <hyperlink ref="D12" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId31"/>
+    <hyperlink ref="A13" display="configData.md" r:id="rId32"/>
+    <hyperlink ref="D13" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId33"/>
+    <hyperlink ref="A14" display="configurations.md" r:id="rId34"/>
+    <hyperlink ref="D14" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId35"/>
+    <hyperlink ref="A15" display="enactingConfigurations.md" r:id="rId36"/>
+    <hyperlink ref="D15" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId37"/>
+    <hyperlink ref="A16" display="environmentResource.md" r:id="rId38"/>
+    <hyperlink ref="D16" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId39"/>
+    <hyperlink ref="A17" display="fileResource.md" r:id="rId40"/>
+    <hyperlink ref="D17" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId41"/>
+    <hyperlink ref="A18" display="groupResource.md" r:id="rId42"/>
+    <hyperlink ref="D18" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId43"/>
+    <hyperlink ref="A19" display="PartialConfig1.jpg" r:id="rId44"/>
+    <hyperlink ref="D19" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId45"/>
+    <hyperlink ref="A20" display="PartialConfigPullServer.jpg" r:id="rId46"/>
+    <hyperlink ref="D20" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId47"/>
+    <hyperlink ref="A21" display="Pull.png" r:id="rId48"/>
+    <hyperlink ref="D21" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId49"/>
+    <hyperlink ref="A22" display="Push.png" r:id="rId50"/>
+    <hyperlink ref="D22" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId51"/>
+    <hyperlink ref="A23" display="lnxArchiveResource.md" r:id="rId52"/>
+    <hyperlink ref="D23" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId53"/>
+    <hyperlink ref="A24" display="lnxBuiltInResources.md" r:id="rId54"/>
+    <hyperlink ref="D24" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId55"/>
+    <hyperlink ref="A25" display="lnxEnvironmentResource.md" r:id="rId56"/>
+    <hyperlink ref="D25" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId57"/>
+    <hyperlink ref="A26" display="lnxFileLineResource.md" r:id="rId58"/>
+    <hyperlink ref="D26" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId59"/>
+    <hyperlink ref="A27" display="lnxFileResource.md" r:id="rId60"/>
+    <hyperlink ref="D27" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId61"/>
+    <hyperlink ref="A28" display="lnxGettingStarted.md" r:id="rId62"/>
+    <hyperlink ref="D28" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId63"/>
+    <hyperlink ref="A29" display="lnxGroupResource.md" r:id="rId64"/>
+    <hyperlink ref="D29" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId65"/>
+    <hyperlink ref="A30" display="lnxPackageResource.md" r:id="rId66"/>
+    <hyperlink ref="D30" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId67"/>
+    <hyperlink ref="A31" display="lnxScriptResource.md" r:id="rId68"/>
+    <hyperlink ref="D31" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId69"/>
+    <hyperlink ref="A32" display="lnxServiceResource.md" r:id="rId70"/>
+    <hyperlink ref="D32" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId71"/>
+    <hyperlink ref="A33" display="lnxSshAuthorizedKeysResource.md" r:id="rId72"/>
+    <hyperlink ref="D33" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId73"/>
+    <hyperlink ref="A34" display="lnxUserResource.md" r:id="rId74"/>
+    <hyperlink ref="D34" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId75"/>
+    <hyperlink ref="A35" display="logResource.md" r:id="rId76"/>
+    <hyperlink ref="D35" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId77"/>
+    <hyperlink ref="A36" display="metaConfig.md" r:id="rId78"/>
+    <hyperlink ref="D36" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId79"/>
+    <hyperlink ref="A37" display="metaConfig4.md" r:id="rId80"/>
+    <hyperlink ref="D37" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId81"/>
+    <hyperlink ref="A38" display="packageResource.md" r:id="rId82"/>
+    <hyperlink ref="D38" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId83"/>
+    <hyperlink ref="A39" display="pullClient.md" r:id="rId84"/>
+    <hyperlink ref="D39" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId85"/>
+    <hyperlink ref="A40" display="pullClientConfigID.md" r:id="rId86"/>
+    <hyperlink ref="D40" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId87"/>
+    <hyperlink ref="A41" display="pullClientConfigID4.md" r:id="rId88"/>
+    <hyperlink ref="D41" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId89"/>
+    <hyperlink ref="A42" display="pullClientConfigNames.md" r:id="rId90"/>
+    <hyperlink ref="D42" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId91"/>
+    <hyperlink ref="A43" display="pullServer.md" r:id="rId92"/>
+    <hyperlink ref="D43" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId93"/>
+    <hyperlink ref="A44" display="queryServerNodes.md" r:id="rId94"/>
+    <hyperlink ref="D44" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId95"/>
+    <hyperlink ref="A45" display="registryResource.md" r:id="rId96"/>
+    <hyperlink ref="D45" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId97"/>
+    <hyperlink ref="A46" display="resources.md" r:id="rId98"/>
+    <hyperlink ref="D46" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId99"/>
+    <hyperlink ref="A47" display="scriptResource.md" r:id="rId100"/>
+    <hyperlink ref="D47" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId101"/>
+    <hyperlink ref="A48" display="secureMOF.md" r:id="rId102"/>
+    <hyperlink ref="D48" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId103"/>
+    <hyperlink ref="A49" display="secureServer.md" r:id="rId104"/>
+    <hyperlink ref="D49" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId105"/>
+    <hyperlink ref="A50" display="serviceResource.md" r:id="rId106"/>
+    <hyperlink ref="D50" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId107"/>
+    <hyperlink ref="A51" display="TOC.md" r:id="rId108"/>
+    <hyperlink ref="D51" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId109"/>
+    <hyperlink ref="A52" display="troubleshooting.md" r:id="rId110"/>
+    <hyperlink ref="D52" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId111"/>
+    <hyperlink ref="A53" display="userResource.md" r:id="rId112"/>
+    <hyperlink ref="D53" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId113"/>
+    <hyperlink ref="A54" display="windowsfeatureResource.md" r:id="rId114"/>
+    <hyperlink ref="D54" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId115"/>
+    <hyperlink ref="A55" display="windowsProcessResource.md" r:id="rId116"/>
+    <hyperlink ref="D55" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId117"/>
+    <hyperlink ref="A56" display="README.md" r:id="rId118"/>
+    <hyperlink ref="D56" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId119"/>
     <hyperlink ref="A57" display="OpenLoc ROCKS.md" r:id="rId120"/>
     <hyperlink ref="D57" display="OpenLoc ROCKS.ac3ecff61703b5a6c0e8f6ae2b1e10c3a845cc67.zh-cn.xlf" r:id="rId121"/>
     <hyperlink ref="A58" display="SonjaFileToo.md" r:id="rId122"/>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/handback-status.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
   <si>
     <t>File Name</t>
   </si>
@@ -47,15 +47,15 @@
     <t>Handed back: not in sync with en-US</t>
   </si>
   <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>N\A</t>
   </si>
   <si>
     <t>authoringResourceClass.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>authoringResourceComposite.md</t>
   </si>
   <si>
@@ -65,9 +65,6 @@
     <t>pullServer.md</t>
   </si>
   <si>
-    <t>troubleshooting.md</t>
-  </si>
-  <si>
     <t>README.md</t>
   </si>
   <si>
@@ -218,6 +215,9 @@
     <t>Push.png</t>
   </si>
   <si>
+    <t>rename_troubleshooting.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -281,9 +281,6 @@
     <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf</t>
   </si>
   <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf</t>
-  </si>
-  <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf</t>
   </si>
   <si>
@@ -413,22 +410,22 @@
     <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.de-de.xlf</t>
   </si>
   <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-12 06:50:20</t>
+  </si>
+  <si>
+    <t>2016-04-12 16:11:00</t>
+  </si>
+  <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 01:00:26</t>
-  </si>
-  <si>
-    <t>2016-04-12 22:40:49</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-12 06:50:20</t>
-  </si>
-  <si>
-    <t>2016-04-12 16:11:00</t>
+    <t>2016-04-14 22:15:58</t>
+  </si>
+  <si>
+    <t>2016-04-19 05:41:16</t>
   </si>
   <si>
     <t>.png</t>
@@ -474,9 +471,6 @@
   </si>
   <si>
     <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.vi-vn.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.vi-vn.xlf</t>
   </si>
   <si>
     <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.vi-vn.xlf</t>
@@ -756,6 +750,15 @@
     <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ja-jp.xlf</t>
   </si>
   <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-16 02:22:37</t>
+  </si>
+  <si>
+    <t>2016-04-18 02:30:58</t>
+  </si>
+  <si>
     <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ja-jp.xlf</t>
   </si>
   <si>
@@ -793,15 +796,6 @@
   </si>
   <si>
     <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-16 02:22:37</t>
-  </si>
-  <si>
-    <t>2016-04-18 02:30:58</t>
   </si>
   <si>
     <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ja-jp.xlf</t>
@@ -867,8 +861,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:L50" headerRowCount="1">
-  <autoFilter ref="A1:L50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:L49" headerRowCount="1">
+  <autoFilter ref="A1:L49"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -964,8 +958,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="vi-vn" displayName="vi_vn" ref="A1:L54" headerRowCount="1">
-  <autoFilter ref="A1:L54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="vi-vn" displayName="vi_vn" ref="A1:L53" headerRowCount="1">
+  <autoFilter ref="A1:L53"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -1110,7 +1104,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>7</v>
@@ -1119,27 +1113,27 @@
         <v>7</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1150,16 +1144,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1170,7 +1164,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>7</v>
@@ -1179,7 +1173,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1190,16 +1184,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1210,16 +1204,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1227,19 +1221,19 @@
         <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1247,19 +1241,19 @@
         <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1267,19 +1261,19 @@
         <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1287,19 +1281,19 @@
         <v>18</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1307,19 +1301,19 @@
         <v>19</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1327,19 +1321,19 @@
         <v>20</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1347,19 +1341,19 @@
         <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1367,19 +1361,19 @@
         <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1387,19 +1381,19 @@
         <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1407,16 +1401,16 @@
         <v>24</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>8</v>
@@ -1427,19 +1421,19 @@
         <v>25</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1447,19 +1441,19 @@
         <v>26</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1467,19 +1461,19 @@
         <v>27</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1487,19 +1481,19 @@
         <v>28</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1507,19 +1501,19 @@
         <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1527,19 +1521,19 @@
         <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1547,19 +1541,19 @@
         <v>31</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1567,19 +1561,19 @@
         <v>32</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1587,19 +1581,19 @@
         <v>33</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -1607,19 +1601,19 @@
         <v>34</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -1627,19 +1621,19 @@
         <v>35</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1647,19 +1641,19 @@
         <v>36</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1667,19 +1661,19 @@
         <v>37</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1687,19 +1681,19 @@
         <v>38</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1707,19 +1701,19 @@
         <v>39</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -1727,19 +1721,19 @@
         <v>40</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1747,19 +1741,19 @@
         <v>41</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -1767,19 +1761,19 @@
         <v>42</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -1787,19 +1781,19 @@
         <v>43</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -1807,19 +1801,19 @@
         <v>44</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -1827,19 +1821,19 @@
         <v>45</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -1847,19 +1841,19 @@
         <v>46</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -1867,19 +1861,19 @@
         <v>47</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -1887,19 +1881,19 @@
         <v>48</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -1907,19 +1901,19 @@
         <v>49</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -1927,19 +1921,19 @@
         <v>50</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -1947,19 +1941,19 @@
         <v>51</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
@@ -1967,19 +1961,19 @@
         <v>52</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -1987,19 +1981,19 @@
         <v>53</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -2007,19 +2001,19 @@
         <v>54</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2027,19 +2021,19 @@
         <v>55</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -2047,19 +2041,19 @@
         <v>56</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -2067,19 +2061,19 @@
         <v>57</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
@@ -2087,19 +2081,19 @@
         <v>58</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -2107,19 +2101,19 @@
         <v>59</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -2127,10 +2121,10 @@
         <v>60</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>8</v>
@@ -2139,7 +2133,7 @@
         <v>8</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -2147,19 +2141,19 @@
         <v>61</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -2167,19 +2161,19 @@
         <v>62</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
@@ -2187,19 +2181,19 @@
         <v>63</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -2207,19 +2201,19 @@
         <v>64</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2229,57 +2223,57 @@
     <hyperlink ref="A4" display="authoringResourceComposite.md" r:id="rId4"/>
     <hyperlink ref="A5" display="partialConfigs.md" r:id="rId5"/>
     <hyperlink ref="A6" display="pullServer.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="troubleshooting.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="README.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="CONTRIBUTING.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="authoringResourceMOF.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="authoringResourceMofCS.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="authoringResourceMofDesigner.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="builtInResource.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="configData.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="configurations.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="enactingConfigurations.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="environmentResource.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="fileResource.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="groupResource.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="lnxArchiveResource.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="lnxBuiltInResources.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="lnxEnvironmentResource.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="lnxFileLineResource.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="lnxFileResource.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="lnxGettingStarted.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="lnxGroupResource.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="lnxPackageResource.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="lnxScriptResource.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="lnxServiceResource.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="lnxSshAuthorizedKeysResource.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="lnxUserResource.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="logResource.md" r:id="rId32"/>
-    <hyperlink ref="A33" display="metaConfig.md" r:id="rId33"/>
-    <hyperlink ref="A34" display="metaConfig4.md" r:id="rId34"/>
-    <hyperlink ref="A35" display="packageResource.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="pullClient.md" r:id="rId36"/>
-    <hyperlink ref="A37" display="pullClientConfigID.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="pullClientConfigID4.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="pullClientConfigNames.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="queryServerNodes.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="registryResource.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="resources.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="scriptResource.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="secureMOF.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="secureServer.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="serviceResource.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="TOC.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="userResource.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="windowsfeatureResource.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="windowsProcessResource.md" r:id="rId50"/>
-    <hyperlink ref="A51" display="overview-test2.md" r:id="rId51"/>
-    <hyperlink ref="A52" display="Pull1.png" r:id="rId52"/>
-    <hyperlink ref="A53" display="archiveResource.md" r:id="rId53"/>
-    <hyperlink ref="A54" display="PartialConfig1.jpg" r:id="rId54"/>
-    <hyperlink ref="A55" display="PartialConfigPullServer.jpg" r:id="rId55"/>
-    <hyperlink ref="A56" display="Pull.png" r:id="rId56"/>
-    <hyperlink ref="A57" display="Push.png" r:id="rId57"/>
+    <hyperlink ref="A7" display="README.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="CONTRIBUTING.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="authoringResourceMOF.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="authoringResourceMofCS.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="authoringResourceMofDesigner.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="builtInResource.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="configData.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="configurations.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="enactingConfigurations.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="environmentResource.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="fileResource.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="groupResource.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="lnxArchiveResource.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="lnxBuiltInResources.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="lnxEnvironmentResource.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="lnxFileLineResource.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="lnxFileResource.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="lnxGettingStarted.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="lnxGroupResource.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="lnxPackageResource.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="lnxScriptResource.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="lnxServiceResource.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="lnxSshAuthorizedKeysResource.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="lnxUserResource.md" r:id="rId30"/>
+    <hyperlink ref="A31" display="logResource.md" r:id="rId31"/>
+    <hyperlink ref="A32" display="metaConfig.md" r:id="rId32"/>
+    <hyperlink ref="A33" display="metaConfig4.md" r:id="rId33"/>
+    <hyperlink ref="A34" display="packageResource.md" r:id="rId34"/>
+    <hyperlink ref="A35" display="pullClient.md" r:id="rId35"/>
+    <hyperlink ref="A36" display="pullClientConfigID.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="pullClientConfigID4.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="pullClientConfigNames.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="queryServerNodes.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="registryResource.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="resources.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="scriptResource.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="secureMOF.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="secureServer.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="serviceResource.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="TOC.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="userResource.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="windowsfeatureResource.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="windowsProcessResource.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="overview-test2.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="Pull1.png" r:id="rId51"/>
+    <hyperlink ref="A52" display="archiveResource.md" r:id="rId52"/>
+    <hyperlink ref="A53" display="PartialConfig1.jpg" r:id="rId53"/>
+    <hyperlink ref="A54" display="PartialConfigPullServer.jpg" r:id="rId54"/>
+    <hyperlink ref="A55" display="Pull.png" r:id="rId55"/>
+    <hyperlink ref="A56" display="Push.png" r:id="rId56"/>
+    <hyperlink ref="A57" display="rename_troubleshooting.md" r:id="rId57"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -2359,19 +2353,19 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>81</v>
@@ -2379,7 +2373,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>77</v>
@@ -2388,19 +2382,19 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>81</v>
@@ -2417,19 +2411,19 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>81</v>
@@ -2446,19 +2440,19 @@
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>81</v>
@@ -2475,19 +2469,19 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>81</v>
@@ -2495,7 +2489,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>77</v>
@@ -2504,19 +2498,19 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>81</v>
@@ -2524,28 +2518,28 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>81</v>
@@ -2553,28 +2547,28 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>81</v>
@@ -2582,28 +2576,28 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>81</v>
@@ -2611,28 +2605,28 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>81</v>
@@ -2640,28 +2634,28 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>81</v>
@@ -2669,28 +2663,28 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>81</v>
@@ -2698,28 +2692,28 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>81</v>
@@ -2727,28 +2721,28 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>81</v>
@@ -2756,28 +2750,28 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>81</v>
@@ -2785,28 +2779,28 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>81</v>
@@ -2814,28 +2808,28 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>81</v>
@@ -2843,156 +2837,156 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J19" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K19" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J20" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K20" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>81</v>
@@ -3000,28 +2994,28 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>81</v>
@@ -3029,28 +3023,28 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>81</v>
@@ -3058,28 +3052,28 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>81</v>
@@ -3087,28 +3081,28 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>81</v>
@@ -3116,28 +3110,28 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>81</v>
@@ -3145,28 +3139,28 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>81</v>
@@ -3174,28 +3168,28 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>81</v>
@@ -3203,28 +3197,28 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>81</v>
@@ -3232,28 +3226,28 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>81</v>
@@ -3261,28 +3255,28 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>81</v>
@@ -3290,28 +3284,28 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>81</v>
@@ -3319,28 +3313,28 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>81</v>
@@ -3348,28 +3342,28 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>81</v>
@@ -3377,28 +3371,28 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>81</v>
@@ -3406,28 +3400,28 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>81</v>
@@ -3435,28 +3429,28 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>245</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>81</v>
@@ -3464,28 +3458,28 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>246</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>246</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>81</v>
@@ -3493,28 +3487,28 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>247</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>247</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>81</v>
@@ -3522,28 +3516,28 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>248</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>248</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>81</v>
@@ -3551,28 +3545,28 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>249</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>81</v>
@@ -3580,28 +3574,28 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>250</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>250</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>81</v>
@@ -3609,28 +3603,28 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>251</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>81</v>
@@ -3638,28 +3632,28 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>252</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>252</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>81</v>
@@ -3667,28 +3661,28 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>253</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>81</v>
@@ -3696,28 +3690,28 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>254</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>254</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>81</v>
@@ -3725,28 +3719,28 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>255</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>255</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>81</v>
@@ -3754,28 +3748,28 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>256</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>256</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>81</v>
@@ -3783,28 +3777,28 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>257</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>259</v>
+        <v>208</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>81</v>
@@ -3812,28 +3806,28 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>81</v>
@@ -3841,28 +3835,28 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>81</v>
@@ -3870,28 +3864,28 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J54" s="0" t="s">
         <v>81</v>
@@ -4043,62 +4037,62 @@
     <hyperlink ref="D37" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ja-jp.xlf" r:id="rId143"/>
     <hyperlink ref="F37" display="metaConfig4.md" r:id="rId144"/>
     <hyperlink ref="G37" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ja-jp.xlf" r:id="rId145"/>
-    <hyperlink ref="A38" display="packageResource.md" r:id="rId146"/>
-    <hyperlink ref="D38" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ja-jp.xlf" r:id="rId147"/>
-    <hyperlink ref="F38" display="packageResource.md" r:id="rId148"/>
-    <hyperlink ref="G38" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ja-jp.xlf" r:id="rId149"/>
-    <hyperlink ref="A39" display="pullClient.md" r:id="rId150"/>
-    <hyperlink ref="D39" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ja-jp.xlf" r:id="rId151"/>
-    <hyperlink ref="F39" display="pullClient.md" r:id="rId152"/>
-    <hyperlink ref="G39" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ja-jp.xlf" r:id="rId153"/>
-    <hyperlink ref="A40" display="pullClientConfigID.md" r:id="rId154"/>
-    <hyperlink ref="D40" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ja-jp.xlf" r:id="rId155"/>
-    <hyperlink ref="F40" display="pullClientConfigID.md" r:id="rId156"/>
-    <hyperlink ref="G40" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ja-jp.xlf" r:id="rId157"/>
-    <hyperlink ref="A41" display="pullClientConfigID4.md" r:id="rId158"/>
-    <hyperlink ref="D41" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ja-jp.xlf" r:id="rId159"/>
-    <hyperlink ref="F41" display="pullClientConfigID4.md" r:id="rId160"/>
-    <hyperlink ref="G41" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ja-jp.xlf" r:id="rId161"/>
-    <hyperlink ref="A42" display="pullClientConfigNames.md" r:id="rId162"/>
-    <hyperlink ref="D42" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ja-jp.xlf" r:id="rId163"/>
-    <hyperlink ref="F42" display="pullClientConfigNames.md" r:id="rId164"/>
-    <hyperlink ref="G42" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ja-jp.xlf" r:id="rId165"/>
-    <hyperlink ref="A43" display="queryServerNodes.md" r:id="rId166"/>
-    <hyperlink ref="D43" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ja-jp.xlf" r:id="rId167"/>
-    <hyperlink ref="F43" display="queryServerNodes.md" r:id="rId168"/>
-    <hyperlink ref="G43" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ja-jp.xlf" r:id="rId169"/>
-    <hyperlink ref="A44" display="registryResource.md" r:id="rId170"/>
-    <hyperlink ref="D44" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ja-jp.xlf" r:id="rId171"/>
-    <hyperlink ref="F44" display="registryResource.md" r:id="rId172"/>
-    <hyperlink ref="G44" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ja-jp.xlf" r:id="rId173"/>
-    <hyperlink ref="A45" display="resources.md" r:id="rId174"/>
-    <hyperlink ref="D45" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ja-jp.xlf" r:id="rId175"/>
-    <hyperlink ref="F45" display="resources.md" r:id="rId176"/>
-    <hyperlink ref="G45" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ja-jp.xlf" r:id="rId177"/>
-    <hyperlink ref="A46" display="scriptResource.md" r:id="rId178"/>
-    <hyperlink ref="D46" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ja-jp.xlf" r:id="rId179"/>
-    <hyperlink ref="F46" display="scriptResource.md" r:id="rId180"/>
-    <hyperlink ref="G46" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ja-jp.xlf" r:id="rId181"/>
-    <hyperlink ref="A47" display="secureMOF.md" r:id="rId182"/>
-    <hyperlink ref="D47" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ja-jp.xlf" r:id="rId183"/>
-    <hyperlink ref="F47" display="secureMOF.md" r:id="rId184"/>
-    <hyperlink ref="G47" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ja-jp.xlf" r:id="rId185"/>
-    <hyperlink ref="A48" display="secureServer.md" r:id="rId186"/>
-    <hyperlink ref="D48" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ja-jp.xlf" r:id="rId187"/>
-    <hyperlink ref="F48" display="secureServer.md" r:id="rId188"/>
-    <hyperlink ref="G48" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ja-jp.xlf" r:id="rId189"/>
-    <hyperlink ref="A49" display="serviceResource.md" r:id="rId190"/>
-    <hyperlink ref="D49" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ja-jp.xlf" r:id="rId191"/>
-    <hyperlink ref="F49" display="serviceResource.md" r:id="rId192"/>
-    <hyperlink ref="G49" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ja-jp.xlf" r:id="rId193"/>
-    <hyperlink ref="A50" display="TOC.md" r:id="rId194"/>
-    <hyperlink ref="D50" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ja-jp.xlf" r:id="rId195"/>
-    <hyperlink ref="F50" display="TOC.md" r:id="rId196"/>
-    <hyperlink ref="G50" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ja-jp.xlf" r:id="rId197"/>
-    <hyperlink ref="A51" display="troubleshooting.md" r:id="rId198"/>
-    <hyperlink ref="D51" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf" r:id="rId199"/>
-    <hyperlink ref="F51" display="troubleshooting.md" r:id="rId200"/>
-    <hyperlink ref="G51" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf" r:id="rId201"/>
+    <hyperlink ref="A38" display="rename_troubleshooting.md" r:id="rId146"/>
+    <hyperlink ref="D38" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf" r:id="rId147"/>
+    <hyperlink ref="F38" display="rename_troubleshooting.md" r:id="rId148"/>
+    <hyperlink ref="G38" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf" r:id="rId149"/>
+    <hyperlink ref="A39" display="packageResource.md" r:id="rId150"/>
+    <hyperlink ref="D39" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ja-jp.xlf" r:id="rId151"/>
+    <hyperlink ref="F39" display="packageResource.md" r:id="rId152"/>
+    <hyperlink ref="G39" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ja-jp.xlf" r:id="rId153"/>
+    <hyperlink ref="A40" display="pullClient.md" r:id="rId154"/>
+    <hyperlink ref="D40" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ja-jp.xlf" r:id="rId155"/>
+    <hyperlink ref="F40" display="pullClient.md" r:id="rId156"/>
+    <hyperlink ref="G40" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ja-jp.xlf" r:id="rId157"/>
+    <hyperlink ref="A41" display="pullClientConfigID.md" r:id="rId158"/>
+    <hyperlink ref="D41" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ja-jp.xlf" r:id="rId159"/>
+    <hyperlink ref="F41" display="pullClientConfigID.md" r:id="rId160"/>
+    <hyperlink ref="G41" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ja-jp.xlf" r:id="rId161"/>
+    <hyperlink ref="A42" display="pullClientConfigID4.md" r:id="rId162"/>
+    <hyperlink ref="D42" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ja-jp.xlf" r:id="rId163"/>
+    <hyperlink ref="F42" display="pullClientConfigID4.md" r:id="rId164"/>
+    <hyperlink ref="G42" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ja-jp.xlf" r:id="rId165"/>
+    <hyperlink ref="A43" display="pullClientConfigNames.md" r:id="rId166"/>
+    <hyperlink ref="D43" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ja-jp.xlf" r:id="rId167"/>
+    <hyperlink ref="F43" display="pullClientConfigNames.md" r:id="rId168"/>
+    <hyperlink ref="G43" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ja-jp.xlf" r:id="rId169"/>
+    <hyperlink ref="A44" display="queryServerNodes.md" r:id="rId170"/>
+    <hyperlink ref="D44" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ja-jp.xlf" r:id="rId171"/>
+    <hyperlink ref="F44" display="queryServerNodes.md" r:id="rId172"/>
+    <hyperlink ref="G44" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ja-jp.xlf" r:id="rId173"/>
+    <hyperlink ref="A45" display="registryResource.md" r:id="rId174"/>
+    <hyperlink ref="D45" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ja-jp.xlf" r:id="rId175"/>
+    <hyperlink ref="F45" display="registryResource.md" r:id="rId176"/>
+    <hyperlink ref="G45" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ja-jp.xlf" r:id="rId177"/>
+    <hyperlink ref="A46" display="resources.md" r:id="rId178"/>
+    <hyperlink ref="D46" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ja-jp.xlf" r:id="rId179"/>
+    <hyperlink ref="F46" display="resources.md" r:id="rId180"/>
+    <hyperlink ref="G46" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ja-jp.xlf" r:id="rId181"/>
+    <hyperlink ref="A47" display="scriptResource.md" r:id="rId182"/>
+    <hyperlink ref="D47" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ja-jp.xlf" r:id="rId183"/>
+    <hyperlink ref="F47" display="scriptResource.md" r:id="rId184"/>
+    <hyperlink ref="G47" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ja-jp.xlf" r:id="rId185"/>
+    <hyperlink ref="A48" display="secureMOF.md" r:id="rId186"/>
+    <hyperlink ref="D48" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ja-jp.xlf" r:id="rId187"/>
+    <hyperlink ref="F48" display="secureMOF.md" r:id="rId188"/>
+    <hyperlink ref="G48" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ja-jp.xlf" r:id="rId189"/>
+    <hyperlink ref="A49" display="secureServer.md" r:id="rId190"/>
+    <hyperlink ref="D49" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ja-jp.xlf" r:id="rId191"/>
+    <hyperlink ref="F49" display="secureServer.md" r:id="rId192"/>
+    <hyperlink ref="G49" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ja-jp.xlf" r:id="rId193"/>
+    <hyperlink ref="A50" display="serviceResource.md" r:id="rId194"/>
+    <hyperlink ref="D50" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ja-jp.xlf" r:id="rId195"/>
+    <hyperlink ref="F50" display="serviceResource.md" r:id="rId196"/>
+    <hyperlink ref="G50" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ja-jp.xlf" r:id="rId197"/>
+    <hyperlink ref="A51" display="TOC.md" r:id="rId198"/>
+    <hyperlink ref="D51" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ja-jp.xlf" r:id="rId199"/>
+    <hyperlink ref="F51" display="TOC.md" r:id="rId200"/>
+    <hyperlink ref="G51" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ja-jp.xlf" r:id="rId201"/>
     <hyperlink ref="A52" display="userResource.md" r:id="rId202"/>
     <hyperlink ref="D52" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ja-jp.xlf" r:id="rId203"/>
     <hyperlink ref="F52" display="userResource.md" r:id="rId204"/>
@@ -4121,7 +4115,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4210,7 +4204,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>77</v>
@@ -4225,7 +4219,7 @@
         <v>79</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>82</v>
@@ -4361,7 +4355,7 @@
         <v>77</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>87</v>
@@ -4390,7 +4384,7 @@
         <v>77</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>88</v>
@@ -4419,7 +4413,7 @@
         <v>77</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>89</v>
@@ -4448,7 +4442,7 @@
         <v>77</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>90</v>
@@ -4477,7 +4471,7 @@
         <v>77</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>91</v>
@@ -4506,7 +4500,7 @@
         <v>77</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>92</v>
@@ -4535,7 +4529,7 @@
         <v>77</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>93</v>
@@ -4564,7 +4558,7 @@
         <v>77</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>94</v>
@@ -4593,7 +4587,7 @@
         <v>77</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>95</v>
@@ -4622,7 +4616,7 @@
         <v>77</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>96</v>
@@ -4651,7 +4645,7 @@
         <v>77</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>97</v>
@@ -4680,7 +4674,7 @@
         <v>77</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>98</v>
@@ -4709,7 +4703,7 @@
         <v>77</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>99</v>
@@ -4738,7 +4732,7 @@
         <v>77</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>100</v>
@@ -4767,7 +4761,7 @@
         <v>77</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>101</v>
@@ -4796,7 +4790,7 @@
         <v>77</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>102</v>
@@ -4825,7 +4819,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>103</v>
@@ -4854,7 +4848,7 @@
         <v>77</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>104</v>
@@ -4883,7 +4877,7 @@
         <v>77</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>105</v>
@@ -4912,7 +4906,7 @@
         <v>77</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>106</v>
@@ -4941,7 +4935,7 @@
         <v>77</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>107</v>
@@ -4970,7 +4964,7 @@
         <v>77</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>108</v>
@@ -4999,7 +4993,7 @@
         <v>77</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>109</v>
@@ -5028,7 +5022,7 @@
         <v>77</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>110</v>
@@ -5057,7 +5051,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>111</v>
@@ -5086,7 +5080,7 @@
         <v>77</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>112</v>
@@ -5115,7 +5109,7 @@
         <v>77</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>113</v>
@@ -5144,7 +5138,7 @@
         <v>77</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>114</v>
@@ -5173,7 +5167,7 @@
         <v>77</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>115</v>
@@ -5202,7 +5196,7 @@
         <v>77</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>116</v>
@@ -5231,7 +5225,7 @@
         <v>77</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>117</v>
@@ -5260,7 +5254,7 @@
         <v>77</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>118</v>
@@ -5289,7 +5283,7 @@
         <v>77</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>119</v>
@@ -5318,7 +5312,7 @@
         <v>77</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>120</v>
@@ -5347,7 +5341,7 @@
         <v>77</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>121</v>
@@ -5376,7 +5370,7 @@
         <v>77</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>122</v>
@@ -5405,7 +5399,7 @@
         <v>77</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>123</v>
@@ -5434,7 +5428,7 @@
         <v>77</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>124</v>
@@ -5463,7 +5457,7 @@
         <v>77</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>125</v>
@@ -5492,7 +5486,7 @@
         <v>77</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>126</v>
@@ -5521,7 +5515,7 @@
         <v>77</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>127</v>
@@ -5550,7 +5544,7 @@
         <v>77</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>128</v>
@@ -5568,35 +5562,6 @@
         <v>80</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J50" s="0" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5622,182 +5587,178 @@
     <hyperlink ref="D6" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId19"/>
     <hyperlink ref="F6" display="pullServer.md" r:id="rId20"/>
     <hyperlink ref="G6" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A7" display="troubleshooting.md" r:id="rId22"/>
-    <hyperlink ref="D7" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId23"/>
-    <hyperlink ref="F7" display="troubleshooting.md" r:id="rId24"/>
-    <hyperlink ref="G7" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId25"/>
-    <hyperlink ref="A8" display="README.md" r:id="rId26"/>
-    <hyperlink ref="D8" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf" r:id="rId27"/>
-    <hyperlink ref="F8" display="README.md" r:id="rId28"/>
-    <hyperlink ref="G8" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf" r:id="rId29"/>
-    <hyperlink ref="A9" display="CONTRIBUTING.md" r:id="rId30"/>
-    <hyperlink ref="D9" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.de-de.xlf" r:id="rId31"/>
-    <hyperlink ref="F9" display="CONTRIBUTING.md" r:id="rId32"/>
-    <hyperlink ref="G9" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.de-de.xlf" r:id="rId33"/>
-    <hyperlink ref="A10" display="authoringResourceMOF.md" r:id="rId34"/>
-    <hyperlink ref="D10" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.de-de.xlf" r:id="rId35"/>
-    <hyperlink ref="F10" display="authoringResourceMOF.md" r:id="rId36"/>
-    <hyperlink ref="G10" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.de-de.xlf" r:id="rId37"/>
-    <hyperlink ref="A11" display="authoringResourceMofCS.md" r:id="rId38"/>
-    <hyperlink ref="D11" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf" r:id="rId39"/>
-    <hyperlink ref="F11" display="authoringResourceMofCS.md" r:id="rId40"/>
-    <hyperlink ref="G11" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf" r:id="rId41"/>
-    <hyperlink ref="A12" display="authoringResourceMofDesigner.md" r:id="rId42"/>
-    <hyperlink ref="D12" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf" r:id="rId43"/>
-    <hyperlink ref="F12" display="authoringResourceMofDesigner.md" r:id="rId44"/>
-    <hyperlink ref="G12" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf" r:id="rId45"/>
-    <hyperlink ref="A13" display="builtInResource.md" r:id="rId46"/>
-    <hyperlink ref="D13" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf" r:id="rId47"/>
-    <hyperlink ref="F13" display="builtInResource.md" r:id="rId48"/>
-    <hyperlink ref="G13" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf" r:id="rId49"/>
-    <hyperlink ref="A14" display="configData.md" r:id="rId50"/>
-    <hyperlink ref="D14" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.de-de.xlf" r:id="rId51"/>
-    <hyperlink ref="F14" display="configData.md" r:id="rId52"/>
-    <hyperlink ref="G14" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.de-de.xlf" r:id="rId53"/>
-    <hyperlink ref="A15" display="configurations.md" r:id="rId54"/>
-    <hyperlink ref="D15" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf" r:id="rId55"/>
-    <hyperlink ref="F15" display="configurations.md" r:id="rId56"/>
-    <hyperlink ref="G15" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf" r:id="rId57"/>
-    <hyperlink ref="A16" display="enactingConfigurations.md" r:id="rId58"/>
-    <hyperlink ref="D16" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf" r:id="rId59"/>
-    <hyperlink ref="F16" display="enactingConfigurations.md" r:id="rId60"/>
-    <hyperlink ref="G16" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf" r:id="rId61"/>
-    <hyperlink ref="A17" display="environmentResource.md" r:id="rId62"/>
-    <hyperlink ref="D17" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf" r:id="rId63"/>
-    <hyperlink ref="F17" display="environmentResource.md" r:id="rId64"/>
-    <hyperlink ref="G17" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf" r:id="rId65"/>
-    <hyperlink ref="A18" display="fileResource.md" r:id="rId66"/>
-    <hyperlink ref="D18" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf" r:id="rId67"/>
-    <hyperlink ref="F18" display="fileResource.md" r:id="rId68"/>
-    <hyperlink ref="G18" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf" r:id="rId69"/>
-    <hyperlink ref="A19" display="groupResource.md" r:id="rId70"/>
-    <hyperlink ref="D19" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf" r:id="rId71"/>
-    <hyperlink ref="F19" display="groupResource.md" r:id="rId72"/>
-    <hyperlink ref="G19" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf" r:id="rId73"/>
-    <hyperlink ref="A20" display="lnxArchiveResource.md" r:id="rId74"/>
-    <hyperlink ref="D20" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf" r:id="rId75"/>
-    <hyperlink ref="F20" display="lnxArchiveResource.md" r:id="rId76"/>
-    <hyperlink ref="G20" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf" r:id="rId77"/>
-    <hyperlink ref="A21" display="lnxBuiltInResources.md" r:id="rId78"/>
-    <hyperlink ref="D21" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf" r:id="rId79"/>
-    <hyperlink ref="F21" display="lnxBuiltInResources.md" r:id="rId80"/>
-    <hyperlink ref="G21" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf" r:id="rId81"/>
-    <hyperlink ref="A22" display="lnxEnvironmentResource.md" r:id="rId82"/>
-    <hyperlink ref="D22" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf" r:id="rId83"/>
-    <hyperlink ref="F22" display="lnxEnvironmentResource.md" r:id="rId84"/>
-    <hyperlink ref="G22" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf" r:id="rId85"/>
-    <hyperlink ref="A23" display="lnxFileLineResource.md" r:id="rId86"/>
-    <hyperlink ref="D23" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf" r:id="rId87"/>
-    <hyperlink ref="F23" display="lnxFileLineResource.md" r:id="rId88"/>
-    <hyperlink ref="G23" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf" r:id="rId89"/>
-    <hyperlink ref="A24" display="lnxFileResource.md" r:id="rId90"/>
-    <hyperlink ref="D24" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf" r:id="rId91"/>
-    <hyperlink ref="F24" display="lnxFileResource.md" r:id="rId92"/>
-    <hyperlink ref="G24" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf" r:id="rId93"/>
-    <hyperlink ref="A25" display="lnxGettingStarted.md" r:id="rId94"/>
-    <hyperlink ref="D25" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf" r:id="rId95"/>
-    <hyperlink ref="F25" display="lnxGettingStarted.md" r:id="rId96"/>
-    <hyperlink ref="G25" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf" r:id="rId97"/>
-    <hyperlink ref="A26" display="lnxGroupResource.md" r:id="rId98"/>
-    <hyperlink ref="D26" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.de-de.xlf" r:id="rId99"/>
-    <hyperlink ref="F26" display="lnxGroupResource.md" r:id="rId100"/>
-    <hyperlink ref="G26" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.de-de.xlf" r:id="rId101"/>
-    <hyperlink ref="A27" display="lnxPackageResource.md" r:id="rId102"/>
-    <hyperlink ref="D27" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf" r:id="rId103"/>
-    <hyperlink ref="F27" display="lnxPackageResource.md" r:id="rId104"/>
-    <hyperlink ref="G27" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf" r:id="rId105"/>
-    <hyperlink ref="A28" display="lnxScriptResource.md" r:id="rId106"/>
-    <hyperlink ref="D28" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf" r:id="rId107"/>
-    <hyperlink ref="F28" display="lnxScriptResource.md" r:id="rId108"/>
-    <hyperlink ref="G28" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf" r:id="rId109"/>
-    <hyperlink ref="A29" display="lnxServiceResource.md" r:id="rId110"/>
-    <hyperlink ref="D29" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf" r:id="rId111"/>
-    <hyperlink ref="F29" display="lnxServiceResource.md" r:id="rId112"/>
-    <hyperlink ref="G29" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf" r:id="rId113"/>
-    <hyperlink ref="A30" display="lnxSshAuthorizedKeysResource.md" r:id="rId114"/>
-    <hyperlink ref="D30" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf" r:id="rId115"/>
-    <hyperlink ref="F30" display="lnxSshAuthorizedKeysResource.md" r:id="rId116"/>
-    <hyperlink ref="G30" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf" r:id="rId117"/>
-    <hyperlink ref="A31" display="lnxUserResource.md" r:id="rId118"/>
-    <hyperlink ref="D31" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf" r:id="rId119"/>
-    <hyperlink ref="F31" display="lnxUserResource.md" r:id="rId120"/>
-    <hyperlink ref="G31" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf" r:id="rId121"/>
-    <hyperlink ref="A32" display="logResource.md" r:id="rId122"/>
-    <hyperlink ref="D32" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf" r:id="rId123"/>
-    <hyperlink ref="F32" display="logResource.md" r:id="rId124"/>
-    <hyperlink ref="G32" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf" r:id="rId125"/>
-    <hyperlink ref="A33" display="metaConfig.md" r:id="rId126"/>
-    <hyperlink ref="D33" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId127"/>
-    <hyperlink ref="F33" display="metaConfig.md" r:id="rId128"/>
-    <hyperlink ref="G33" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId129"/>
-    <hyperlink ref="A34" display="metaConfig4.md" r:id="rId130"/>
-    <hyperlink ref="D34" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf" r:id="rId131"/>
-    <hyperlink ref="F34" display="metaConfig4.md" r:id="rId132"/>
-    <hyperlink ref="G34" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf" r:id="rId133"/>
-    <hyperlink ref="A35" display="packageResource.md" r:id="rId134"/>
-    <hyperlink ref="D35" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf" r:id="rId135"/>
-    <hyperlink ref="F35" display="packageResource.md" r:id="rId136"/>
-    <hyperlink ref="G35" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf" r:id="rId137"/>
-    <hyperlink ref="A36" display="pullClient.md" r:id="rId138"/>
-    <hyperlink ref="D36" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf" r:id="rId139"/>
-    <hyperlink ref="F36" display="pullClient.md" r:id="rId140"/>
-    <hyperlink ref="G36" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf" r:id="rId141"/>
-    <hyperlink ref="A37" display="pullClientConfigID.md" r:id="rId142"/>
-    <hyperlink ref="D37" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf" r:id="rId143"/>
-    <hyperlink ref="F37" display="pullClientConfigID.md" r:id="rId144"/>
-    <hyperlink ref="G37" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf" r:id="rId145"/>
-    <hyperlink ref="A38" display="pullClientConfigID4.md" r:id="rId146"/>
-    <hyperlink ref="D38" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf" r:id="rId147"/>
-    <hyperlink ref="F38" display="pullClientConfigID4.md" r:id="rId148"/>
-    <hyperlink ref="G38" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf" r:id="rId149"/>
-    <hyperlink ref="A39" display="pullClientConfigNames.md" r:id="rId150"/>
-    <hyperlink ref="D39" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId151"/>
-    <hyperlink ref="F39" display="pullClientConfigNames.md" r:id="rId152"/>
-    <hyperlink ref="G39" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId153"/>
-    <hyperlink ref="A40" display="queryServerNodes.md" r:id="rId154"/>
-    <hyperlink ref="D40" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf" r:id="rId155"/>
-    <hyperlink ref="F40" display="queryServerNodes.md" r:id="rId156"/>
-    <hyperlink ref="G40" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf" r:id="rId157"/>
-    <hyperlink ref="A41" display="registryResource.md" r:id="rId158"/>
-    <hyperlink ref="D41" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf" r:id="rId159"/>
-    <hyperlink ref="F41" display="registryResource.md" r:id="rId160"/>
-    <hyperlink ref="G41" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf" r:id="rId161"/>
-    <hyperlink ref="A42" display="resources.md" r:id="rId162"/>
-    <hyperlink ref="D42" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf" r:id="rId163"/>
-    <hyperlink ref="F42" display="resources.md" r:id="rId164"/>
-    <hyperlink ref="G42" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf" r:id="rId165"/>
-    <hyperlink ref="A43" display="scriptResource.md" r:id="rId166"/>
-    <hyperlink ref="D43" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf" r:id="rId167"/>
-    <hyperlink ref="F43" display="scriptResource.md" r:id="rId168"/>
-    <hyperlink ref="G43" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf" r:id="rId169"/>
-    <hyperlink ref="A44" display="secureMOF.md" r:id="rId170"/>
-    <hyperlink ref="D44" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf" r:id="rId171"/>
-    <hyperlink ref="F44" display="secureMOF.md" r:id="rId172"/>
-    <hyperlink ref="G44" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf" r:id="rId173"/>
-    <hyperlink ref="A45" display="secureServer.md" r:id="rId174"/>
-    <hyperlink ref="D45" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf" r:id="rId175"/>
-    <hyperlink ref="F45" display="secureServer.md" r:id="rId176"/>
-    <hyperlink ref="G45" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf" r:id="rId177"/>
-    <hyperlink ref="A46" display="serviceResource.md" r:id="rId178"/>
-    <hyperlink ref="D46" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf" r:id="rId179"/>
-    <hyperlink ref="F46" display="serviceResource.md" r:id="rId180"/>
-    <hyperlink ref="G46" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf" r:id="rId181"/>
-    <hyperlink ref="A47" display="TOC.md" r:id="rId182"/>
-    <hyperlink ref="D47" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf" r:id="rId183"/>
-    <hyperlink ref="F47" display="TOC.md" r:id="rId184"/>
-    <hyperlink ref="G47" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf" r:id="rId185"/>
-    <hyperlink ref="A48" display="userResource.md" r:id="rId186"/>
-    <hyperlink ref="D48" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf" r:id="rId187"/>
-    <hyperlink ref="F48" display="userResource.md" r:id="rId188"/>
-    <hyperlink ref="G48" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf" r:id="rId189"/>
-    <hyperlink ref="A49" display="windowsfeatureResource.md" r:id="rId190"/>
-    <hyperlink ref="D49" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId191"/>
-    <hyperlink ref="F49" display="windowsfeatureResource.md" r:id="rId192"/>
-    <hyperlink ref="G49" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId193"/>
-    <hyperlink ref="A50" display="windowsProcessResource.md" r:id="rId194"/>
-    <hyperlink ref="D50" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.de-de.xlf" r:id="rId195"/>
-    <hyperlink ref="F50" display="windowsProcessResource.md" r:id="rId196"/>
-    <hyperlink ref="G50" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.de-de.xlf" r:id="rId197"/>
+    <hyperlink ref="A7" display="README.md" r:id="rId22"/>
+    <hyperlink ref="D7" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="F7" display="README.md" r:id="rId24"/>
+    <hyperlink ref="G7" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf" r:id="rId25"/>
+    <hyperlink ref="A8" display="CONTRIBUTING.md" r:id="rId26"/>
+    <hyperlink ref="D8" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.de-de.xlf" r:id="rId27"/>
+    <hyperlink ref="F8" display="CONTRIBUTING.md" r:id="rId28"/>
+    <hyperlink ref="G8" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.de-de.xlf" r:id="rId29"/>
+    <hyperlink ref="A9" display="authoringResourceMOF.md" r:id="rId30"/>
+    <hyperlink ref="D9" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.de-de.xlf" r:id="rId31"/>
+    <hyperlink ref="F9" display="authoringResourceMOF.md" r:id="rId32"/>
+    <hyperlink ref="G9" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.de-de.xlf" r:id="rId33"/>
+    <hyperlink ref="A10" display="authoringResourceMofCS.md" r:id="rId34"/>
+    <hyperlink ref="D10" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf" r:id="rId35"/>
+    <hyperlink ref="F10" display="authoringResourceMofCS.md" r:id="rId36"/>
+    <hyperlink ref="G10" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf" r:id="rId37"/>
+    <hyperlink ref="A11" display="authoringResourceMofDesigner.md" r:id="rId38"/>
+    <hyperlink ref="D11" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf" r:id="rId39"/>
+    <hyperlink ref="F11" display="authoringResourceMofDesigner.md" r:id="rId40"/>
+    <hyperlink ref="G11" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf" r:id="rId41"/>
+    <hyperlink ref="A12" display="builtInResource.md" r:id="rId42"/>
+    <hyperlink ref="D12" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf" r:id="rId43"/>
+    <hyperlink ref="F12" display="builtInResource.md" r:id="rId44"/>
+    <hyperlink ref="G12" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf" r:id="rId45"/>
+    <hyperlink ref="A13" display="configData.md" r:id="rId46"/>
+    <hyperlink ref="D13" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.de-de.xlf" r:id="rId47"/>
+    <hyperlink ref="F13" display="configData.md" r:id="rId48"/>
+    <hyperlink ref="G13" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.de-de.xlf" r:id="rId49"/>
+    <hyperlink ref="A14" display="configurations.md" r:id="rId50"/>
+    <hyperlink ref="D14" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf" r:id="rId51"/>
+    <hyperlink ref="F14" display="configurations.md" r:id="rId52"/>
+    <hyperlink ref="G14" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf" r:id="rId53"/>
+    <hyperlink ref="A15" display="enactingConfigurations.md" r:id="rId54"/>
+    <hyperlink ref="D15" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf" r:id="rId55"/>
+    <hyperlink ref="F15" display="enactingConfigurations.md" r:id="rId56"/>
+    <hyperlink ref="G15" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf" r:id="rId57"/>
+    <hyperlink ref="A16" display="environmentResource.md" r:id="rId58"/>
+    <hyperlink ref="D16" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf" r:id="rId59"/>
+    <hyperlink ref="F16" display="environmentResource.md" r:id="rId60"/>
+    <hyperlink ref="G16" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf" r:id="rId61"/>
+    <hyperlink ref="A17" display="fileResource.md" r:id="rId62"/>
+    <hyperlink ref="D17" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf" r:id="rId63"/>
+    <hyperlink ref="F17" display="fileResource.md" r:id="rId64"/>
+    <hyperlink ref="G17" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf" r:id="rId65"/>
+    <hyperlink ref="A18" display="groupResource.md" r:id="rId66"/>
+    <hyperlink ref="D18" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf" r:id="rId67"/>
+    <hyperlink ref="F18" display="groupResource.md" r:id="rId68"/>
+    <hyperlink ref="G18" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf" r:id="rId69"/>
+    <hyperlink ref="A19" display="lnxArchiveResource.md" r:id="rId70"/>
+    <hyperlink ref="D19" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf" r:id="rId71"/>
+    <hyperlink ref="F19" display="lnxArchiveResource.md" r:id="rId72"/>
+    <hyperlink ref="G19" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf" r:id="rId73"/>
+    <hyperlink ref="A20" display="lnxBuiltInResources.md" r:id="rId74"/>
+    <hyperlink ref="D20" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf" r:id="rId75"/>
+    <hyperlink ref="F20" display="lnxBuiltInResources.md" r:id="rId76"/>
+    <hyperlink ref="G20" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf" r:id="rId77"/>
+    <hyperlink ref="A21" display="lnxEnvironmentResource.md" r:id="rId78"/>
+    <hyperlink ref="D21" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf" r:id="rId79"/>
+    <hyperlink ref="F21" display="lnxEnvironmentResource.md" r:id="rId80"/>
+    <hyperlink ref="G21" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf" r:id="rId81"/>
+    <hyperlink ref="A22" display="lnxFileLineResource.md" r:id="rId82"/>
+    <hyperlink ref="D22" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf" r:id="rId83"/>
+    <hyperlink ref="F22" display="lnxFileLineResource.md" r:id="rId84"/>
+    <hyperlink ref="G22" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf" r:id="rId85"/>
+    <hyperlink ref="A23" display="lnxFileResource.md" r:id="rId86"/>
+    <hyperlink ref="D23" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf" r:id="rId87"/>
+    <hyperlink ref="F23" display="lnxFileResource.md" r:id="rId88"/>
+    <hyperlink ref="G23" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf" r:id="rId89"/>
+    <hyperlink ref="A24" display="lnxGettingStarted.md" r:id="rId90"/>
+    <hyperlink ref="D24" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf" r:id="rId91"/>
+    <hyperlink ref="F24" display="lnxGettingStarted.md" r:id="rId92"/>
+    <hyperlink ref="G24" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf" r:id="rId93"/>
+    <hyperlink ref="A25" display="lnxGroupResource.md" r:id="rId94"/>
+    <hyperlink ref="D25" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.de-de.xlf" r:id="rId95"/>
+    <hyperlink ref="F25" display="lnxGroupResource.md" r:id="rId96"/>
+    <hyperlink ref="G25" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.de-de.xlf" r:id="rId97"/>
+    <hyperlink ref="A26" display="lnxPackageResource.md" r:id="rId98"/>
+    <hyperlink ref="D26" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf" r:id="rId99"/>
+    <hyperlink ref="F26" display="lnxPackageResource.md" r:id="rId100"/>
+    <hyperlink ref="G26" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf" r:id="rId101"/>
+    <hyperlink ref="A27" display="lnxScriptResource.md" r:id="rId102"/>
+    <hyperlink ref="D27" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf" r:id="rId103"/>
+    <hyperlink ref="F27" display="lnxScriptResource.md" r:id="rId104"/>
+    <hyperlink ref="G27" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf" r:id="rId105"/>
+    <hyperlink ref="A28" display="lnxServiceResource.md" r:id="rId106"/>
+    <hyperlink ref="D28" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf" r:id="rId107"/>
+    <hyperlink ref="F28" display="lnxServiceResource.md" r:id="rId108"/>
+    <hyperlink ref="G28" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf" r:id="rId109"/>
+    <hyperlink ref="A29" display="lnxSshAuthorizedKeysResource.md" r:id="rId110"/>
+    <hyperlink ref="D29" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf" r:id="rId111"/>
+    <hyperlink ref="F29" display="lnxSshAuthorizedKeysResource.md" r:id="rId112"/>
+    <hyperlink ref="G29" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf" r:id="rId113"/>
+    <hyperlink ref="A30" display="lnxUserResource.md" r:id="rId114"/>
+    <hyperlink ref="D30" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf" r:id="rId115"/>
+    <hyperlink ref="F30" display="lnxUserResource.md" r:id="rId116"/>
+    <hyperlink ref="G30" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf" r:id="rId117"/>
+    <hyperlink ref="A31" display="logResource.md" r:id="rId118"/>
+    <hyperlink ref="D31" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf" r:id="rId119"/>
+    <hyperlink ref="F31" display="logResource.md" r:id="rId120"/>
+    <hyperlink ref="G31" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf" r:id="rId121"/>
+    <hyperlink ref="A32" display="metaConfig.md" r:id="rId122"/>
+    <hyperlink ref="D32" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId123"/>
+    <hyperlink ref="F32" display="metaConfig.md" r:id="rId124"/>
+    <hyperlink ref="G32" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId125"/>
+    <hyperlink ref="A33" display="metaConfig4.md" r:id="rId126"/>
+    <hyperlink ref="D33" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf" r:id="rId127"/>
+    <hyperlink ref="F33" display="metaConfig4.md" r:id="rId128"/>
+    <hyperlink ref="G33" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf" r:id="rId129"/>
+    <hyperlink ref="A34" display="packageResource.md" r:id="rId130"/>
+    <hyperlink ref="D34" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf" r:id="rId131"/>
+    <hyperlink ref="F34" display="packageResource.md" r:id="rId132"/>
+    <hyperlink ref="G34" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf" r:id="rId133"/>
+    <hyperlink ref="A35" display="pullClient.md" r:id="rId134"/>
+    <hyperlink ref="D35" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf" r:id="rId135"/>
+    <hyperlink ref="F35" display="pullClient.md" r:id="rId136"/>
+    <hyperlink ref="G35" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf" r:id="rId137"/>
+    <hyperlink ref="A36" display="pullClientConfigID.md" r:id="rId138"/>
+    <hyperlink ref="D36" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf" r:id="rId139"/>
+    <hyperlink ref="F36" display="pullClientConfigID.md" r:id="rId140"/>
+    <hyperlink ref="G36" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf" r:id="rId141"/>
+    <hyperlink ref="A37" display="pullClientConfigID4.md" r:id="rId142"/>
+    <hyperlink ref="D37" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf" r:id="rId143"/>
+    <hyperlink ref="F37" display="pullClientConfigID4.md" r:id="rId144"/>
+    <hyperlink ref="G37" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf" r:id="rId145"/>
+    <hyperlink ref="A38" display="pullClientConfigNames.md" r:id="rId146"/>
+    <hyperlink ref="D38" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId147"/>
+    <hyperlink ref="F38" display="pullClientConfigNames.md" r:id="rId148"/>
+    <hyperlink ref="G38" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId149"/>
+    <hyperlink ref="A39" display="queryServerNodes.md" r:id="rId150"/>
+    <hyperlink ref="D39" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf" r:id="rId151"/>
+    <hyperlink ref="F39" display="queryServerNodes.md" r:id="rId152"/>
+    <hyperlink ref="G39" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf" r:id="rId153"/>
+    <hyperlink ref="A40" display="registryResource.md" r:id="rId154"/>
+    <hyperlink ref="D40" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf" r:id="rId155"/>
+    <hyperlink ref="F40" display="registryResource.md" r:id="rId156"/>
+    <hyperlink ref="G40" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf" r:id="rId157"/>
+    <hyperlink ref="A41" display="resources.md" r:id="rId158"/>
+    <hyperlink ref="D41" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf" r:id="rId159"/>
+    <hyperlink ref="F41" display="resources.md" r:id="rId160"/>
+    <hyperlink ref="G41" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf" r:id="rId161"/>
+    <hyperlink ref="A42" display="scriptResource.md" r:id="rId162"/>
+    <hyperlink ref="D42" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf" r:id="rId163"/>
+    <hyperlink ref="F42" display="scriptResource.md" r:id="rId164"/>
+    <hyperlink ref="G42" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf" r:id="rId165"/>
+    <hyperlink ref="A43" display="secureMOF.md" r:id="rId166"/>
+    <hyperlink ref="D43" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf" r:id="rId167"/>
+    <hyperlink ref="F43" display="secureMOF.md" r:id="rId168"/>
+    <hyperlink ref="G43" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf" r:id="rId169"/>
+    <hyperlink ref="A44" display="secureServer.md" r:id="rId170"/>
+    <hyperlink ref="D44" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf" r:id="rId171"/>
+    <hyperlink ref="F44" display="secureServer.md" r:id="rId172"/>
+    <hyperlink ref="G44" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf" r:id="rId173"/>
+    <hyperlink ref="A45" display="serviceResource.md" r:id="rId174"/>
+    <hyperlink ref="D45" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf" r:id="rId175"/>
+    <hyperlink ref="F45" display="serviceResource.md" r:id="rId176"/>
+    <hyperlink ref="G45" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf" r:id="rId177"/>
+    <hyperlink ref="A46" display="TOC.md" r:id="rId178"/>
+    <hyperlink ref="D46" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf" r:id="rId179"/>
+    <hyperlink ref="F46" display="TOC.md" r:id="rId180"/>
+    <hyperlink ref="G46" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf" r:id="rId181"/>
+    <hyperlink ref="A47" display="userResource.md" r:id="rId182"/>
+    <hyperlink ref="D47" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf" r:id="rId183"/>
+    <hyperlink ref="F47" display="userResource.md" r:id="rId184"/>
+    <hyperlink ref="G47" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf" r:id="rId185"/>
+    <hyperlink ref="A48" display="windowsfeatureResource.md" r:id="rId186"/>
+    <hyperlink ref="D48" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId187"/>
+    <hyperlink ref="F48" display="windowsfeatureResource.md" r:id="rId188"/>
+    <hyperlink ref="G48" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId189"/>
+    <hyperlink ref="A49" display="windowsProcessResource.md" r:id="rId190"/>
+    <hyperlink ref="D49" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.de-de.xlf" r:id="rId191"/>
+    <hyperlink ref="F49" display="windowsProcessResource.md" r:id="rId192"/>
+    <hyperlink ref="G49" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.de-de.xlf" r:id="rId193"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -5868,7 +5829,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>77</v>
@@ -5877,19 +5838,19 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>81</v>
@@ -5897,28 +5858,28 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>81</v>
@@ -5926,34 +5887,34 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="5">
@@ -5964,22 +5925,22 @@
         <v>77</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>81</v>
@@ -5987,28 +5948,28 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>81</v>
@@ -6016,14 +5977,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="authoringResource.md" r:id="rId2"/>
-    <hyperlink ref="D2" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="F2" display="authoringResource.md" r:id="rId4"/>
-    <hyperlink ref="G2" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="overview-test2.md" r:id="rId6"/>
-    <hyperlink ref="D3" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="F3" display="overview-test2.md" r:id="rId8"/>
-    <hyperlink ref="G3" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="overview-test2.md" r:id="rId2"/>
+    <hyperlink ref="D2" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="F2" display="overview-test2.md" r:id="rId4"/>
+    <hyperlink ref="G2" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="authoringResource.md" r:id="rId6"/>
+    <hyperlink ref="D3" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="F3" display="authoringResource.md" r:id="rId8"/>
+    <hyperlink ref="G3" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display="Pull1.png" r:id="rId10"/>
     <hyperlink ref="D4" display="a20dd5927999cbb3c1125bd4ff8944954abc84a9.png" r:id="rId11"/>
     <hyperlink ref="F4" display="Pull1.png" r:id="rId12"/>
@@ -6182,7 +6143,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6251,19 +6212,19 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>81</v>
@@ -6280,19 +6241,19 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>81</v>
@@ -6300,28 +6261,28 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>81</v>
@@ -6329,28 +6290,28 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>81</v>
@@ -6358,28 +6319,28 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>81</v>
@@ -6387,28 +6348,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>81</v>
@@ -6422,22 +6383,22 @@
         <v>77</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>81</v>
@@ -6451,22 +6412,22 @@
         <v>77</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>81</v>
@@ -6480,22 +6441,22 @@
         <v>77</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>81</v>
@@ -6509,22 +6470,22 @@
         <v>77</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>81</v>
@@ -6538,22 +6499,22 @@
         <v>77</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>81</v>
@@ -6567,22 +6528,22 @@
         <v>77</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>81</v>
@@ -6596,22 +6557,22 @@
         <v>77</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>81</v>
@@ -6625,22 +6586,22 @@
         <v>77</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>81</v>
@@ -6654,22 +6615,22 @@
         <v>77</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>81</v>
@@ -6677,31 +6638,34 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>164</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>81</v>
+        <v>139</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="18">
@@ -6709,31 +6673,31 @@
         <v>61</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J18" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K18" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="19">
@@ -6741,31 +6705,31 @@
         <v>62</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K19" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20">
@@ -6773,16 +6737,16 @@
         <v>63</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>168</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>63</v>
@@ -6791,10 +6755,10 @@
         <v>168</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>169</v>
@@ -6802,34 +6766,31 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>170</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>171</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
@@ -6840,22 +6801,22 @@
         <v>77</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>81</v>
@@ -6869,22 +6830,22 @@
         <v>77</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>81</v>
@@ -6898,22 +6859,22 @@
         <v>77</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>81</v>
@@ -6927,22 +6888,22 @@
         <v>77</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>81</v>
@@ -6956,22 +6917,22 @@
         <v>77</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>81</v>
@@ -6985,22 +6946,22 @@
         <v>77</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>81</v>
@@ -7014,22 +6975,22 @@
         <v>77</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>81</v>
@@ -7043,22 +7004,22 @@
         <v>77</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>81</v>
@@ -7072,22 +7033,22 @@
         <v>77</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>81</v>
@@ -7101,22 +7062,22 @@
         <v>77</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>81</v>
@@ -7130,22 +7091,22 @@
         <v>77</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>81</v>
@@ -7159,22 +7120,22 @@
         <v>77</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>81</v>
@@ -7188,22 +7149,22 @@
         <v>77</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>81</v>
@@ -7217,22 +7178,22 @@
         <v>77</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>81</v>
@@ -7246,22 +7207,22 @@
         <v>77</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>81</v>
@@ -7275,22 +7236,22 @@
         <v>77</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>81</v>
@@ -7304,22 +7265,22 @@
         <v>77</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>81</v>
@@ -7333,22 +7294,22 @@
         <v>77</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>81</v>
@@ -7362,22 +7323,22 @@
         <v>77</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>81</v>
@@ -7385,28 +7346,28 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>81</v>
@@ -7414,28 +7375,28 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>81</v>
@@ -7449,22 +7410,22 @@
         <v>77</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>81</v>
@@ -7478,22 +7439,22 @@
         <v>77</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>81</v>
@@ -7507,22 +7468,22 @@
         <v>77</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>81</v>
@@ -7536,22 +7497,22 @@
         <v>77</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>81</v>
@@ -7565,22 +7526,22 @@
         <v>77</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>81</v>
@@ -7594,22 +7555,22 @@
         <v>77</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>81</v>
@@ -7623,22 +7584,22 @@
         <v>77</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>81</v>
@@ -7652,22 +7613,22 @@
         <v>77</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>81</v>
@@ -7681,22 +7642,22 @@
         <v>77</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>81</v>
@@ -7710,22 +7671,22 @@
         <v>77</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>81</v>
@@ -7733,59 +7694,30 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E53" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="J53" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J54" s="0" t="s">
         <v>81</v>
       </c>
     </row>
@@ -7799,210 +7731,206 @@
     <hyperlink ref="D3" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.vi-vn.xlf" r:id="rId7"/>
     <hyperlink ref="F3" display="partialConfigs.md" r:id="rId8"/>
     <hyperlink ref="G3" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.vi-vn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="troubleshooting.md" r:id="rId10"/>
-    <hyperlink ref="D4" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.vi-vn.xlf" r:id="rId11"/>
-    <hyperlink ref="F4" display="troubleshooting.md" r:id="rId12"/>
-    <hyperlink ref="G4" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.vi-vn.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="CONTRIBUTING.md" r:id="rId14"/>
-    <hyperlink ref="D5" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.vi-vn.xlf" r:id="rId15"/>
-    <hyperlink ref="F5" display="CONTRIBUTING.md" r:id="rId16"/>
-    <hyperlink ref="G5" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.vi-vn.xlf" r:id="rId17"/>
-    <hyperlink ref="A6" display="authoringResourceClass.md" r:id="rId18"/>
-    <hyperlink ref="D6" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.vi-vn.xlf" r:id="rId19"/>
-    <hyperlink ref="F6" display="authoringResourceClass.md" r:id="rId20"/>
-    <hyperlink ref="G6" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.vi-vn.xlf" r:id="rId21"/>
-    <hyperlink ref="A7" display="authoringResourceComposite.md" r:id="rId22"/>
-    <hyperlink ref="D7" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.vi-vn.xlf" r:id="rId23"/>
-    <hyperlink ref="F7" display="authoringResourceComposite.md" r:id="rId24"/>
-    <hyperlink ref="G7" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.vi-vn.xlf" r:id="rId25"/>
-    <hyperlink ref="A8" display="authoringResourceMOF.md" r:id="rId26"/>
-    <hyperlink ref="D8" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.vi-vn.xlf" r:id="rId27"/>
-    <hyperlink ref="F8" display="authoringResourceMOF.md" r:id="rId28"/>
-    <hyperlink ref="G8" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.vi-vn.xlf" r:id="rId29"/>
-    <hyperlink ref="A9" display="authoringResourceMofCS.md" r:id="rId30"/>
-    <hyperlink ref="D9" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.vi-vn.xlf" r:id="rId31"/>
-    <hyperlink ref="F9" display="authoringResourceMofCS.md" r:id="rId32"/>
-    <hyperlink ref="G9" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.vi-vn.xlf" r:id="rId33"/>
-    <hyperlink ref="A10" display="authoringResourceMofDesigner.md" r:id="rId34"/>
-    <hyperlink ref="D10" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.vi-vn.xlf" r:id="rId35"/>
-    <hyperlink ref="F10" display="authoringResourceMofDesigner.md" r:id="rId36"/>
-    <hyperlink ref="G10" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.vi-vn.xlf" r:id="rId37"/>
-    <hyperlink ref="A11" display="builtInResource.md" r:id="rId38"/>
-    <hyperlink ref="D11" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.vi-vn.xlf" r:id="rId39"/>
-    <hyperlink ref="F11" display="builtInResource.md" r:id="rId40"/>
-    <hyperlink ref="G11" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.vi-vn.xlf" r:id="rId41"/>
-    <hyperlink ref="A12" display="configData.md" r:id="rId42"/>
-    <hyperlink ref="D12" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.vi-vn.xlf" r:id="rId43"/>
-    <hyperlink ref="F12" display="configData.md" r:id="rId44"/>
-    <hyperlink ref="G12" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.vi-vn.xlf" r:id="rId45"/>
-    <hyperlink ref="A13" display="configurations.md" r:id="rId46"/>
-    <hyperlink ref="D13" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.vi-vn.xlf" r:id="rId47"/>
-    <hyperlink ref="F13" display="configurations.md" r:id="rId48"/>
-    <hyperlink ref="G13" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.vi-vn.xlf" r:id="rId49"/>
-    <hyperlink ref="A14" display="enactingConfigurations.md" r:id="rId50"/>
-    <hyperlink ref="D14" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.vi-vn.xlf" r:id="rId51"/>
-    <hyperlink ref="F14" display="enactingConfigurations.md" r:id="rId52"/>
-    <hyperlink ref="G14" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.vi-vn.xlf" r:id="rId53"/>
-    <hyperlink ref="A15" display="environmentResource.md" r:id="rId54"/>
-    <hyperlink ref="D15" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.vi-vn.xlf" r:id="rId55"/>
-    <hyperlink ref="F15" display="environmentResource.md" r:id="rId56"/>
-    <hyperlink ref="G15" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.vi-vn.xlf" r:id="rId57"/>
-    <hyperlink ref="A16" display="fileResource.md" r:id="rId58"/>
-    <hyperlink ref="D16" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.vi-vn.xlf" r:id="rId59"/>
-    <hyperlink ref="F16" display="fileResource.md" r:id="rId60"/>
-    <hyperlink ref="G16" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.vi-vn.xlf" r:id="rId61"/>
-    <hyperlink ref="A17" display="groupResource.md" r:id="rId62"/>
-    <hyperlink ref="D17" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.vi-vn.xlf" r:id="rId63"/>
-    <hyperlink ref="F17" display="groupResource.md" r:id="rId64"/>
-    <hyperlink ref="G17" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.vi-vn.xlf" r:id="rId65"/>
-    <hyperlink ref="A18" display="PartialConfig1.jpg" r:id="rId66"/>
-    <hyperlink ref="D18" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId67"/>
-    <hyperlink ref="F18" display="PartialConfig1.jpg" r:id="rId68"/>
-    <hyperlink ref="G18" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId69"/>
-    <hyperlink ref="A19" display="PartialConfigPullServer.jpg" r:id="rId70"/>
-    <hyperlink ref="D19" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId71"/>
-    <hyperlink ref="F19" display="PartialConfigPullServer.jpg" r:id="rId72"/>
-    <hyperlink ref="G19" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId73"/>
-    <hyperlink ref="A20" display="Pull.png" r:id="rId74"/>
-    <hyperlink ref="D20" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId75"/>
-    <hyperlink ref="F20" display="Pull.png" r:id="rId76"/>
-    <hyperlink ref="G20" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId77"/>
-    <hyperlink ref="A21" display="Push.png" r:id="rId78"/>
-    <hyperlink ref="D21" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId79"/>
-    <hyperlink ref="F21" display="Push.png" r:id="rId80"/>
-    <hyperlink ref="G21" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId81"/>
-    <hyperlink ref="A22" display="lnxArchiveResource.md" r:id="rId82"/>
-    <hyperlink ref="D22" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.vi-vn.xlf" r:id="rId83"/>
-    <hyperlink ref="F22" display="lnxArchiveResource.md" r:id="rId84"/>
-    <hyperlink ref="G22" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.vi-vn.xlf" r:id="rId85"/>
-    <hyperlink ref="A23" display="lnxBuiltInResources.md" r:id="rId86"/>
-    <hyperlink ref="D23" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.vi-vn.xlf" r:id="rId87"/>
-    <hyperlink ref="F23" display="lnxBuiltInResources.md" r:id="rId88"/>
-    <hyperlink ref="G23" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.vi-vn.xlf" r:id="rId89"/>
-    <hyperlink ref="A24" display="lnxEnvironmentResource.md" r:id="rId90"/>
-    <hyperlink ref="D24" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.vi-vn.xlf" r:id="rId91"/>
-    <hyperlink ref="F24" display="lnxEnvironmentResource.md" r:id="rId92"/>
-    <hyperlink ref="G24" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.vi-vn.xlf" r:id="rId93"/>
-    <hyperlink ref="A25" display="lnxFileLineResource.md" r:id="rId94"/>
-    <hyperlink ref="D25" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.vi-vn.xlf" r:id="rId95"/>
-    <hyperlink ref="F25" display="lnxFileLineResource.md" r:id="rId96"/>
-    <hyperlink ref="G25" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.vi-vn.xlf" r:id="rId97"/>
-    <hyperlink ref="A26" display="lnxFileResource.md" r:id="rId98"/>
-    <hyperlink ref="D26" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.vi-vn.xlf" r:id="rId99"/>
-    <hyperlink ref="F26" display="lnxFileResource.md" r:id="rId100"/>
-    <hyperlink ref="G26" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.vi-vn.xlf" r:id="rId101"/>
-    <hyperlink ref="A27" display="lnxGettingStarted.md" r:id="rId102"/>
-    <hyperlink ref="D27" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.vi-vn.xlf" r:id="rId103"/>
-    <hyperlink ref="F27" display="lnxGettingStarted.md" r:id="rId104"/>
-    <hyperlink ref="G27" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.vi-vn.xlf" r:id="rId105"/>
-    <hyperlink ref="A28" display="lnxGroupResource.md" r:id="rId106"/>
-    <hyperlink ref="D28" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.vi-vn.xlf" r:id="rId107"/>
-    <hyperlink ref="F28" display="lnxGroupResource.md" r:id="rId108"/>
-    <hyperlink ref="G28" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.vi-vn.xlf" r:id="rId109"/>
-    <hyperlink ref="A29" display="lnxPackageResource.md" r:id="rId110"/>
-    <hyperlink ref="D29" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.vi-vn.xlf" r:id="rId111"/>
-    <hyperlink ref="F29" display="lnxPackageResource.md" r:id="rId112"/>
-    <hyperlink ref="G29" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.vi-vn.xlf" r:id="rId113"/>
-    <hyperlink ref="A30" display="lnxScriptResource.md" r:id="rId114"/>
-    <hyperlink ref="D30" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.vi-vn.xlf" r:id="rId115"/>
-    <hyperlink ref="F30" display="lnxScriptResource.md" r:id="rId116"/>
-    <hyperlink ref="G30" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.vi-vn.xlf" r:id="rId117"/>
-    <hyperlink ref="A31" display="lnxServiceResource.md" r:id="rId118"/>
-    <hyperlink ref="D31" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.vi-vn.xlf" r:id="rId119"/>
-    <hyperlink ref="F31" display="lnxServiceResource.md" r:id="rId120"/>
-    <hyperlink ref="G31" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.vi-vn.xlf" r:id="rId121"/>
-    <hyperlink ref="A32" display="lnxSshAuthorizedKeysResource.md" r:id="rId122"/>
-    <hyperlink ref="D32" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.vi-vn.xlf" r:id="rId123"/>
-    <hyperlink ref="F32" display="lnxSshAuthorizedKeysResource.md" r:id="rId124"/>
-    <hyperlink ref="G32" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.vi-vn.xlf" r:id="rId125"/>
-    <hyperlink ref="A33" display="lnxUserResource.md" r:id="rId126"/>
-    <hyperlink ref="D33" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.vi-vn.xlf" r:id="rId127"/>
-    <hyperlink ref="F33" display="lnxUserResource.md" r:id="rId128"/>
-    <hyperlink ref="G33" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.vi-vn.xlf" r:id="rId129"/>
-    <hyperlink ref="A34" display="logResource.md" r:id="rId130"/>
-    <hyperlink ref="D34" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.vi-vn.xlf" r:id="rId131"/>
-    <hyperlink ref="F34" display="logResource.md" r:id="rId132"/>
-    <hyperlink ref="G34" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.vi-vn.xlf" r:id="rId133"/>
-    <hyperlink ref="A35" display="metaConfig.md" r:id="rId134"/>
-    <hyperlink ref="D35" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.vi-vn.xlf" r:id="rId135"/>
-    <hyperlink ref="F35" display="metaConfig.md" r:id="rId136"/>
-    <hyperlink ref="G35" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.vi-vn.xlf" r:id="rId137"/>
-    <hyperlink ref="A36" display="metaConfig4.md" r:id="rId138"/>
-    <hyperlink ref="D36" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.vi-vn.xlf" r:id="rId139"/>
-    <hyperlink ref="F36" display="metaConfig4.md" r:id="rId140"/>
-    <hyperlink ref="G36" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.vi-vn.xlf" r:id="rId141"/>
-    <hyperlink ref="A37" display="packageResource.md" r:id="rId142"/>
-    <hyperlink ref="D37" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.vi-vn.xlf" r:id="rId143"/>
-    <hyperlink ref="F37" display="packageResource.md" r:id="rId144"/>
-    <hyperlink ref="G37" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.vi-vn.xlf" r:id="rId145"/>
-    <hyperlink ref="A38" display="pullClient.md" r:id="rId146"/>
-    <hyperlink ref="D38" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.vi-vn.xlf" r:id="rId147"/>
-    <hyperlink ref="F38" display="pullClient.md" r:id="rId148"/>
-    <hyperlink ref="G38" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.vi-vn.xlf" r:id="rId149"/>
-    <hyperlink ref="A39" display="pullClientConfigID.md" r:id="rId150"/>
-    <hyperlink ref="D39" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.vi-vn.xlf" r:id="rId151"/>
-    <hyperlink ref="F39" display="pullClientConfigID.md" r:id="rId152"/>
-    <hyperlink ref="G39" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.vi-vn.xlf" r:id="rId153"/>
-    <hyperlink ref="A40" display="pullClientConfigID4.md" r:id="rId154"/>
-    <hyperlink ref="D40" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.vi-vn.xlf" r:id="rId155"/>
-    <hyperlink ref="F40" display="pullClientConfigID4.md" r:id="rId156"/>
-    <hyperlink ref="G40" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.vi-vn.xlf" r:id="rId157"/>
-    <hyperlink ref="A41" display="pullClientConfigNames.md" r:id="rId158"/>
-    <hyperlink ref="D41" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.vi-vn.xlf" r:id="rId159"/>
-    <hyperlink ref="F41" display="pullClientConfigNames.md" r:id="rId160"/>
-    <hyperlink ref="G41" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.vi-vn.xlf" r:id="rId161"/>
-    <hyperlink ref="A42" display="pullServer.md" r:id="rId162"/>
-    <hyperlink ref="D42" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.vi-vn.xlf" r:id="rId163"/>
-    <hyperlink ref="F42" display="pullServer.md" r:id="rId164"/>
-    <hyperlink ref="G42" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.vi-vn.xlf" r:id="rId165"/>
-    <hyperlink ref="A43" display="queryServerNodes.md" r:id="rId166"/>
-    <hyperlink ref="D43" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.vi-vn.xlf" r:id="rId167"/>
-    <hyperlink ref="F43" display="queryServerNodes.md" r:id="rId168"/>
-    <hyperlink ref="G43" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.vi-vn.xlf" r:id="rId169"/>
-    <hyperlink ref="A44" display="registryResource.md" r:id="rId170"/>
-    <hyperlink ref="D44" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.vi-vn.xlf" r:id="rId171"/>
-    <hyperlink ref="F44" display="registryResource.md" r:id="rId172"/>
-    <hyperlink ref="G44" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.vi-vn.xlf" r:id="rId173"/>
-    <hyperlink ref="A45" display="resources.md" r:id="rId174"/>
-    <hyperlink ref="D45" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.vi-vn.xlf" r:id="rId175"/>
-    <hyperlink ref="F45" display="resources.md" r:id="rId176"/>
-    <hyperlink ref="G45" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.vi-vn.xlf" r:id="rId177"/>
-    <hyperlink ref="A46" display="scriptResource.md" r:id="rId178"/>
-    <hyperlink ref="D46" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.vi-vn.xlf" r:id="rId179"/>
-    <hyperlink ref="F46" display="scriptResource.md" r:id="rId180"/>
-    <hyperlink ref="G46" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.vi-vn.xlf" r:id="rId181"/>
-    <hyperlink ref="A47" display="secureMOF.md" r:id="rId182"/>
-    <hyperlink ref="D47" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.vi-vn.xlf" r:id="rId183"/>
-    <hyperlink ref="F47" display="secureMOF.md" r:id="rId184"/>
-    <hyperlink ref="G47" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.vi-vn.xlf" r:id="rId185"/>
-    <hyperlink ref="A48" display="secureServer.md" r:id="rId186"/>
-    <hyperlink ref="D48" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.vi-vn.xlf" r:id="rId187"/>
-    <hyperlink ref="F48" display="secureServer.md" r:id="rId188"/>
-    <hyperlink ref="G48" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.vi-vn.xlf" r:id="rId189"/>
-    <hyperlink ref="A49" display="serviceResource.md" r:id="rId190"/>
-    <hyperlink ref="D49" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.vi-vn.xlf" r:id="rId191"/>
-    <hyperlink ref="F49" display="serviceResource.md" r:id="rId192"/>
-    <hyperlink ref="G49" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.vi-vn.xlf" r:id="rId193"/>
-    <hyperlink ref="A50" display="TOC.md" r:id="rId194"/>
-    <hyperlink ref="D50" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.vi-vn.xlf" r:id="rId195"/>
-    <hyperlink ref="F50" display="TOC.md" r:id="rId196"/>
-    <hyperlink ref="G50" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.vi-vn.xlf" r:id="rId197"/>
-    <hyperlink ref="A51" display="userResource.md" r:id="rId198"/>
-    <hyperlink ref="D51" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.vi-vn.xlf" r:id="rId199"/>
-    <hyperlink ref="F51" display="userResource.md" r:id="rId200"/>
-    <hyperlink ref="G51" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.vi-vn.xlf" r:id="rId201"/>
-    <hyperlink ref="A52" display="windowsfeatureResource.md" r:id="rId202"/>
-    <hyperlink ref="D52" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.vi-vn.xlf" r:id="rId203"/>
-    <hyperlink ref="F52" display="windowsfeatureResource.md" r:id="rId204"/>
-    <hyperlink ref="G52" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.vi-vn.xlf" r:id="rId205"/>
-    <hyperlink ref="A53" display="windowsProcessResource.md" r:id="rId206"/>
-    <hyperlink ref="D53" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.vi-vn.xlf" r:id="rId207"/>
-    <hyperlink ref="F53" display="windowsProcessResource.md" r:id="rId208"/>
-    <hyperlink ref="G53" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.vi-vn.xlf" r:id="rId209"/>
-    <hyperlink ref="A54" display="README.md" r:id="rId210"/>
-    <hyperlink ref="D54" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.vi-vn.xlf" r:id="rId211"/>
-    <hyperlink ref="F54" display="README.md" r:id="rId212"/>
-    <hyperlink ref="G54" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.vi-vn.xlf" r:id="rId213"/>
+    <hyperlink ref="A4" display="CONTRIBUTING.md" r:id="rId10"/>
+    <hyperlink ref="D4" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.vi-vn.xlf" r:id="rId11"/>
+    <hyperlink ref="F4" display="CONTRIBUTING.md" r:id="rId12"/>
+    <hyperlink ref="G4" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.vi-vn.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="authoringResourceClass.md" r:id="rId14"/>
+    <hyperlink ref="D5" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.vi-vn.xlf" r:id="rId15"/>
+    <hyperlink ref="F5" display="authoringResourceClass.md" r:id="rId16"/>
+    <hyperlink ref="G5" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.vi-vn.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="authoringResourceComposite.md" r:id="rId18"/>
+    <hyperlink ref="D6" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.vi-vn.xlf" r:id="rId19"/>
+    <hyperlink ref="F6" display="authoringResourceComposite.md" r:id="rId20"/>
+    <hyperlink ref="G6" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.vi-vn.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="authoringResourceMOF.md" r:id="rId22"/>
+    <hyperlink ref="D7" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.vi-vn.xlf" r:id="rId23"/>
+    <hyperlink ref="F7" display="authoringResourceMOF.md" r:id="rId24"/>
+    <hyperlink ref="G7" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.vi-vn.xlf" r:id="rId25"/>
+    <hyperlink ref="A8" display="authoringResourceMofCS.md" r:id="rId26"/>
+    <hyperlink ref="D8" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.vi-vn.xlf" r:id="rId27"/>
+    <hyperlink ref="F8" display="authoringResourceMofCS.md" r:id="rId28"/>
+    <hyperlink ref="G8" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.vi-vn.xlf" r:id="rId29"/>
+    <hyperlink ref="A9" display="authoringResourceMofDesigner.md" r:id="rId30"/>
+    <hyperlink ref="D9" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.vi-vn.xlf" r:id="rId31"/>
+    <hyperlink ref="F9" display="authoringResourceMofDesigner.md" r:id="rId32"/>
+    <hyperlink ref="G9" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.vi-vn.xlf" r:id="rId33"/>
+    <hyperlink ref="A10" display="builtInResource.md" r:id="rId34"/>
+    <hyperlink ref="D10" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.vi-vn.xlf" r:id="rId35"/>
+    <hyperlink ref="F10" display="builtInResource.md" r:id="rId36"/>
+    <hyperlink ref="G10" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.vi-vn.xlf" r:id="rId37"/>
+    <hyperlink ref="A11" display="configData.md" r:id="rId38"/>
+    <hyperlink ref="D11" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.vi-vn.xlf" r:id="rId39"/>
+    <hyperlink ref="F11" display="configData.md" r:id="rId40"/>
+    <hyperlink ref="G11" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.vi-vn.xlf" r:id="rId41"/>
+    <hyperlink ref="A12" display="configurations.md" r:id="rId42"/>
+    <hyperlink ref="D12" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.vi-vn.xlf" r:id="rId43"/>
+    <hyperlink ref="F12" display="configurations.md" r:id="rId44"/>
+    <hyperlink ref="G12" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.vi-vn.xlf" r:id="rId45"/>
+    <hyperlink ref="A13" display="enactingConfigurations.md" r:id="rId46"/>
+    <hyperlink ref="D13" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.vi-vn.xlf" r:id="rId47"/>
+    <hyperlink ref="F13" display="enactingConfigurations.md" r:id="rId48"/>
+    <hyperlink ref="G13" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.vi-vn.xlf" r:id="rId49"/>
+    <hyperlink ref="A14" display="environmentResource.md" r:id="rId50"/>
+    <hyperlink ref="D14" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.vi-vn.xlf" r:id="rId51"/>
+    <hyperlink ref="F14" display="environmentResource.md" r:id="rId52"/>
+    <hyperlink ref="G14" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.vi-vn.xlf" r:id="rId53"/>
+    <hyperlink ref="A15" display="fileResource.md" r:id="rId54"/>
+    <hyperlink ref="D15" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.vi-vn.xlf" r:id="rId55"/>
+    <hyperlink ref="F15" display="fileResource.md" r:id="rId56"/>
+    <hyperlink ref="G15" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.vi-vn.xlf" r:id="rId57"/>
+    <hyperlink ref="A16" display="groupResource.md" r:id="rId58"/>
+    <hyperlink ref="D16" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.vi-vn.xlf" r:id="rId59"/>
+    <hyperlink ref="F16" display="groupResource.md" r:id="rId60"/>
+    <hyperlink ref="G16" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.vi-vn.xlf" r:id="rId61"/>
+    <hyperlink ref="A17" display="PartialConfig1.jpg" r:id="rId62"/>
+    <hyperlink ref="D17" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId63"/>
+    <hyperlink ref="F17" display="PartialConfig1.jpg" r:id="rId64"/>
+    <hyperlink ref="G17" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId65"/>
+    <hyperlink ref="A18" display="PartialConfigPullServer.jpg" r:id="rId66"/>
+    <hyperlink ref="D18" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId67"/>
+    <hyperlink ref="F18" display="PartialConfigPullServer.jpg" r:id="rId68"/>
+    <hyperlink ref="G18" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId69"/>
+    <hyperlink ref="A19" display="Pull.png" r:id="rId70"/>
+    <hyperlink ref="D19" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId71"/>
+    <hyperlink ref="F19" display="Pull.png" r:id="rId72"/>
+    <hyperlink ref="G19" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId73"/>
+    <hyperlink ref="A20" display="Push.png" r:id="rId74"/>
+    <hyperlink ref="D20" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId75"/>
+    <hyperlink ref="F20" display="Push.png" r:id="rId76"/>
+    <hyperlink ref="G20" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId77"/>
+    <hyperlink ref="A21" display="lnxArchiveResource.md" r:id="rId78"/>
+    <hyperlink ref="D21" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.vi-vn.xlf" r:id="rId79"/>
+    <hyperlink ref="F21" display="lnxArchiveResource.md" r:id="rId80"/>
+    <hyperlink ref="G21" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.vi-vn.xlf" r:id="rId81"/>
+    <hyperlink ref="A22" display="lnxBuiltInResources.md" r:id="rId82"/>
+    <hyperlink ref="D22" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.vi-vn.xlf" r:id="rId83"/>
+    <hyperlink ref="F22" display="lnxBuiltInResources.md" r:id="rId84"/>
+    <hyperlink ref="G22" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.vi-vn.xlf" r:id="rId85"/>
+    <hyperlink ref="A23" display="lnxEnvironmentResource.md" r:id="rId86"/>
+    <hyperlink ref="D23" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.vi-vn.xlf" r:id="rId87"/>
+    <hyperlink ref="F23" display="lnxEnvironmentResource.md" r:id="rId88"/>
+    <hyperlink ref="G23" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.vi-vn.xlf" r:id="rId89"/>
+    <hyperlink ref="A24" display="lnxFileLineResource.md" r:id="rId90"/>
+    <hyperlink ref="D24" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.vi-vn.xlf" r:id="rId91"/>
+    <hyperlink ref="F24" display="lnxFileLineResource.md" r:id="rId92"/>
+    <hyperlink ref="G24" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.vi-vn.xlf" r:id="rId93"/>
+    <hyperlink ref="A25" display="lnxFileResource.md" r:id="rId94"/>
+    <hyperlink ref="D25" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.vi-vn.xlf" r:id="rId95"/>
+    <hyperlink ref="F25" display="lnxFileResource.md" r:id="rId96"/>
+    <hyperlink ref="G25" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.vi-vn.xlf" r:id="rId97"/>
+    <hyperlink ref="A26" display="lnxGettingStarted.md" r:id="rId98"/>
+    <hyperlink ref="D26" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.vi-vn.xlf" r:id="rId99"/>
+    <hyperlink ref="F26" display="lnxGettingStarted.md" r:id="rId100"/>
+    <hyperlink ref="G26" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.vi-vn.xlf" r:id="rId101"/>
+    <hyperlink ref="A27" display="lnxGroupResource.md" r:id="rId102"/>
+    <hyperlink ref="D27" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.vi-vn.xlf" r:id="rId103"/>
+    <hyperlink ref="F27" display="lnxGroupResource.md" r:id="rId104"/>
+    <hyperlink ref="G27" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.vi-vn.xlf" r:id="rId105"/>
+    <hyperlink ref="A28" display="lnxPackageResource.md" r:id="rId106"/>
+    <hyperlink ref="D28" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.vi-vn.xlf" r:id="rId107"/>
+    <hyperlink ref="F28" display="lnxPackageResource.md" r:id="rId108"/>
+    <hyperlink ref="G28" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.vi-vn.xlf" r:id="rId109"/>
+    <hyperlink ref="A29" display="lnxScriptResource.md" r:id="rId110"/>
+    <hyperlink ref="D29" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.vi-vn.xlf" r:id="rId111"/>
+    <hyperlink ref="F29" display="lnxScriptResource.md" r:id="rId112"/>
+    <hyperlink ref="G29" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.vi-vn.xlf" r:id="rId113"/>
+    <hyperlink ref="A30" display="lnxServiceResource.md" r:id="rId114"/>
+    <hyperlink ref="D30" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.vi-vn.xlf" r:id="rId115"/>
+    <hyperlink ref="F30" display="lnxServiceResource.md" r:id="rId116"/>
+    <hyperlink ref="G30" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.vi-vn.xlf" r:id="rId117"/>
+    <hyperlink ref="A31" display="lnxSshAuthorizedKeysResource.md" r:id="rId118"/>
+    <hyperlink ref="D31" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.vi-vn.xlf" r:id="rId119"/>
+    <hyperlink ref="F31" display="lnxSshAuthorizedKeysResource.md" r:id="rId120"/>
+    <hyperlink ref="G31" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.vi-vn.xlf" r:id="rId121"/>
+    <hyperlink ref="A32" display="lnxUserResource.md" r:id="rId122"/>
+    <hyperlink ref="D32" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.vi-vn.xlf" r:id="rId123"/>
+    <hyperlink ref="F32" display="lnxUserResource.md" r:id="rId124"/>
+    <hyperlink ref="G32" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.vi-vn.xlf" r:id="rId125"/>
+    <hyperlink ref="A33" display="logResource.md" r:id="rId126"/>
+    <hyperlink ref="D33" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.vi-vn.xlf" r:id="rId127"/>
+    <hyperlink ref="F33" display="logResource.md" r:id="rId128"/>
+    <hyperlink ref="G33" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.vi-vn.xlf" r:id="rId129"/>
+    <hyperlink ref="A34" display="metaConfig.md" r:id="rId130"/>
+    <hyperlink ref="D34" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.vi-vn.xlf" r:id="rId131"/>
+    <hyperlink ref="F34" display="metaConfig.md" r:id="rId132"/>
+    <hyperlink ref="G34" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.vi-vn.xlf" r:id="rId133"/>
+    <hyperlink ref="A35" display="metaConfig4.md" r:id="rId134"/>
+    <hyperlink ref="D35" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.vi-vn.xlf" r:id="rId135"/>
+    <hyperlink ref="F35" display="metaConfig4.md" r:id="rId136"/>
+    <hyperlink ref="G35" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.vi-vn.xlf" r:id="rId137"/>
+    <hyperlink ref="A36" display="packageResource.md" r:id="rId138"/>
+    <hyperlink ref="D36" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.vi-vn.xlf" r:id="rId139"/>
+    <hyperlink ref="F36" display="packageResource.md" r:id="rId140"/>
+    <hyperlink ref="G36" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.vi-vn.xlf" r:id="rId141"/>
+    <hyperlink ref="A37" display="pullClient.md" r:id="rId142"/>
+    <hyperlink ref="D37" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.vi-vn.xlf" r:id="rId143"/>
+    <hyperlink ref="F37" display="pullClient.md" r:id="rId144"/>
+    <hyperlink ref="G37" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.vi-vn.xlf" r:id="rId145"/>
+    <hyperlink ref="A38" display="pullClientConfigID.md" r:id="rId146"/>
+    <hyperlink ref="D38" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.vi-vn.xlf" r:id="rId147"/>
+    <hyperlink ref="F38" display="pullClientConfigID.md" r:id="rId148"/>
+    <hyperlink ref="G38" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.vi-vn.xlf" r:id="rId149"/>
+    <hyperlink ref="A39" display="pullClientConfigID4.md" r:id="rId150"/>
+    <hyperlink ref="D39" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.vi-vn.xlf" r:id="rId151"/>
+    <hyperlink ref="F39" display="pullClientConfigID4.md" r:id="rId152"/>
+    <hyperlink ref="G39" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.vi-vn.xlf" r:id="rId153"/>
+    <hyperlink ref="A40" display="pullClientConfigNames.md" r:id="rId154"/>
+    <hyperlink ref="D40" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.vi-vn.xlf" r:id="rId155"/>
+    <hyperlink ref="F40" display="pullClientConfigNames.md" r:id="rId156"/>
+    <hyperlink ref="G40" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.vi-vn.xlf" r:id="rId157"/>
+    <hyperlink ref="A41" display="pullServer.md" r:id="rId158"/>
+    <hyperlink ref="D41" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.vi-vn.xlf" r:id="rId159"/>
+    <hyperlink ref="F41" display="pullServer.md" r:id="rId160"/>
+    <hyperlink ref="G41" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.vi-vn.xlf" r:id="rId161"/>
+    <hyperlink ref="A42" display="queryServerNodes.md" r:id="rId162"/>
+    <hyperlink ref="D42" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.vi-vn.xlf" r:id="rId163"/>
+    <hyperlink ref="F42" display="queryServerNodes.md" r:id="rId164"/>
+    <hyperlink ref="G42" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.vi-vn.xlf" r:id="rId165"/>
+    <hyperlink ref="A43" display="registryResource.md" r:id="rId166"/>
+    <hyperlink ref="D43" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.vi-vn.xlf" r:id="rId167"/>
+    <hyperlink ref="F43" display="registryResource.md" r:id="rId168"/>
+    <hyperlink ref="G43" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.vi-vn.xlf" r:id="rId169"/>
+    <hyperlink ref="A44" display="resources.md" r:id="rId170"/>
+    <hyperlink ref="D44" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.vi-vn.xlf" r:id="rId171"/>
+    <hyperlink ref="F44" display="resources.md" r:id="rId172"/>
+    <hyperlink ref="G44" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.vi-vn.xlf" r:id="rId173"/>
+    <hyperlink ref="A45" display="scriptResource.md" r:id="rId174"/>
+    <hyperlink ref="D45" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.vi-vn.xlf" r:id="rId175"/>
+    <hyperlink ref="F45" display="scriptResource.md" r:id="rId176"/>
+    <hyperlink ref="G45" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.vi-vn.xlf" r:id="rId177"/>
+    <hyperlink ref="A46" display="secureMOF.md" r:id="rId178"/>
+    <hyperlink ref="D46" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.vi-vn.xlf" r:id="rId179"/>
+    <hyperlink ref="F46" display="secureMOF.md" r:id="rId180"/>
+    <hyperlink ref="G46" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.vi-vn.xlf" r:id="rId181"/>
+    <hyperlink ref="A47" display="secureServer.md" r:id="rId182"/>
+    <hyperlink ref="D47" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.vi-vn.xlf" r:id="rId183"/>
+    <hyperlink ref="F47" display="secureServer.md" r:id="rId184"/>
+    <hyperlink ref="G47" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.vi-vn.xlf" r:id="rId185"/>
+    <hyperlink ref="A48" display="serviceResource.md" r:id="rId186"/>
+    <hyperlink ref="D48" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.vi-vn.xlf" r:id="rId187"/>
+    <hyperlink ref="F48" display="serviceResource.md" r:id="rId188"/>
+    <hyperlink ref="G48" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.vi-vn.xlf" r:id="rId189"/>
+    <hyperlink ref="A49" display="TOC.md" r:id="rId190"/>
+    <hyperlink ref="D49" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.vi-vn.xlf" r:id="rId191"/>
+    <hyperlink ref="F49" display="TOC.md" r:id="rId192"/>
+    <hyperlink ref="G49" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.vi-vn.xlf" r:id="rId193"/>
+    <hyperlink ref="A50" display="userResource.md" r:id="rId194"/>
+    <hyperlink ref="D50" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.vi-vn.xlf" r:id="rId195"/>
+    <hyperlink ref="F50" display="userResource.md" r:id="rId196"/>
+    <hyperlink ref="G50" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.vi-vn.xlf" r:id="rId197"/>
+    <hyperlink ref="A51" display="windowsfeatureResource.md" r:id="rId198"/>
+    <hyperlink ref="D51" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.vi-vn.xlf" r:id="rId199"/>
+    <hyperlink ref="F51" display="windowsfeatureResource.md" r:id="rId200"/>
+    <hyperlink ref="G51" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.vi-vn.xlf" r:id="rId201"/>
+    <hyperlink ref="A52" display="windowsProcessResource.md" r:id="rId202"/>
+    <hyperlink ref="D52" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.vi-vn.xlf" r:id="rId203"/>
+    <hyperlink ref="F52" display="windowsProcessResource.md" r:id="rId204"/>
+    <hyperlink ref="G52" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.vi-vn.xlf" r:id="rId205"/>
+    <hyperlink ref="A53" display="README.md" r:id="rId206"/>
+    <hyperlink ref="D53" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.vi-vn.xlf" r:id="rId207"/>
+    <hyperlink ref="F53" display="README.md" r:id="rId208"/>
+    <hyperlink ref="G53" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.vi-vn.xlf" r:id="rId209"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -8073,28 +8001,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>81</v>
